--- a/week 6/مطالعات/Skale(V3.6).xlsx
+++ b/week 6/مطالعات/Skale(V3.6).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\Quiz\skale week\week n\مطالعات\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\Quiz\week 6\مطالعات\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="گوگل" sheetId="1" r:id="rId1"/>
@@ -2101,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="B2:K2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2149,11 +2149,21 @@
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -2245,23 +2255,23 @@
       </c>
       <c r="C2" s="12">
         <f>IF(گوگل!C2=کلید!B$2,3,IF(گوگل!C2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12">
         <f>IF(گوگل!D2=کلید!C$2,3,IF(گوگل!D2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12">
         <f>IF(گوگل!E2=کلید!D$2,3,IF(گوگل!E2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12">
         <f>IF(گوگل!F2=کلید!E$2,3,IF(گوگل!F2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
         <f>IF(گوگل!G2=کلید!F$2,3,IF(گوگل!G2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
         <f>IF(گوگل!H2=کلید!G$2,3,IF(گوگل!H2="",0,-1))</f>
@@ -2285,7 +2295,7 @@
       </c>
       <c r="M2" s="13">
         <f t="shared" ref="M2:M44" si="0">(SUM(C2:L2)/(30))*100</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2299,23 +2309,23 @@
       </c>
       <c r="C3" s="12">
         <f>IF(گوگل!C3=کلید!B$2,3,IF(گوگل!C3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="12">
         <f>IF(گوگل!D3=کلید!C$2,3,IF(گوگل!D3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="12">
         <f>IF(گوگل!E3=کلید!D$2,3,IF(گوگل!E3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="12">
         <f>IF(گوگل!F3=کلید!E$2,3,IF(گوگل!F3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="12">
         <f>IF(گوگل!G3=کلید!F$2,3,IF(گوگل!G3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="12">
         <f>IF(گوگل!H3=کلید!G$2,3,IF(گوگل!H3="",0,-1))</f>
@@ -2339,7 +2349,7 @@
       </c>
       <c r="M3" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2353,23 +2363,23 @@
       </c>
       <c r="C4" s="12">
         <f>IF(گوگل!C4=کلید!B$2,3,IF(گوگل!C4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="12">
         <f>IF(گوگل!D4=کلید!C$2,3,IF(گوگل!D4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="12">
         <f>IF(گوگل!E4=کلید!D$2,3,IF(گوگل!E4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="12">
         <f>IF(گوگل!F4=کلید!E$2,3,IF(گوگل!F4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="12">
         <f>IF(گوگل!G4=کلید!F$2,3,IF(گوگل!G4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="12">
         <f>IF(گوگل!H4=کلید!G$2,3,IF(گوگل!H4="",0,-1))</f>
@@ -2393,7 +2403,7 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2407,23 +2417,23 @@
       </c>
       <c r="C5" s="12">
         <f>IF(گوگل!C5=کلید!B$2,3,IF(گوگل!C5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="12">
         <f>IF(گوگل!D5=کلید!C$2,3,IF(گوگل!D5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
         <f>IF(گوگل!E5=کلید!D$2,3,IF(گوگل!E5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="12">
         <f>IF(گوگل!F5=کلید!E$2,3,IF(گوگل!F5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="12">
         <f>IF(گوگل!G5=کلید!F$2,3,IF(گوگل!G5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="12">
         <f>IF(گوگل!H5=کلید!G$2,3,IF(گوگل!H5="",0,-1))</f>
@@ -2447,7 +2457,7 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2461,23 +2471,23 @@
       </c>
       <c r="C6" s="12">
         <f>IF(گوگل!C6=کلید!B$2,3,IF(گوگل!C6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
         <f>IF(گوگل!D6=کلید!C$2,3,IF(گوگل!D6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
         <f>IF(گوگل!E6=کلید!D$2,3,IF(گوگل!E6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="12">
         <f>IF(گوگل!F6=کلید!E$2,3,IF(گوگل!F6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <f>IF(گوگل!G6=کلید!F$2,3,IF(گوگل!G6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12">
         <f>IF(گوگل!H6=کلید!G$2,3,IF(گوگل!H6="",0,-1))</f>
@@ -2501,7 +2511,7 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2515,23 +2525,23 @@
       </c>
       <c r="C7" s="12">
         <f>IF(گوگل!C7=کلید!B$2,3,IF(گوگل!C7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
         <f>IF(گوگل!D7=کلید!C$2,3,IF(گوگل!D7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="12">
         <f>IF(گوگل!E7=کلید!D$2,3,IF(گوگل!E7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="12">
         <f>IF(گوگل!F7=کلید!E$2,3,IF(گوگل!F7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <f>IF(گوگل!G7=کلید!F$2,3,IF(گوگل!G7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
         <f>IF(گوگل!H7=کلید!G$2,3,IF(گوگل!H7="",0,-1))</f>
@@ -2555,7 +2565,7 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2569,23 +2579,23 @@
       </c>
       <c r="C8" s="12">
         <f>IF(گوگل!C8=کلید!B$2,3,IF(گوگل!C8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
         <f>IF(گوگل!D8=کلید!C$2,3,IF(گوگل!D8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="12">
         <f>IF(گوگل!E8=کلید!D$2,3,IF(گوگل!E8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="12">
         <f>IF(گوگل!F8=کلید!E$2,3,IF(گوگل!F8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <f>IF(گوگل!G8=کلید!F$2,3,IF(گوگل!G8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
         <f>IF(گوگل!H8=کلید!G$2,3,IF(گوگل!H8="",0,-1))</f>
@@ -2609,7 +2619,7 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2623,23 +2633,23 @@
       </c>
       <c r="C9" s="12">
         <f>IF(گوگل!C9=کلید!B$2,3,IF(گوگل!C9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
         <f>IF(گوگل!D9=کلید!C$2,3,IF(گوگل!D9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
         <f>IF(گوگل!E9=کلید!D$2,3,IF(گوگل!E9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12">
         <f>IF(گوگل!F9=کلید!E$2,3,IF(گوگل!F9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <f>IF(گوگل!G9=کلید!F$2,3,IF(گوگل!G9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12">
         <f>IF(گوگل!H9=کلید!G$2,3,IF(گوگل!H9="",0,-1))</f>
@@ -2663,7 +2673,7 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2677,23 +2687,23 @@
       </c>
       <c r="C10" s="12">
         <f>IF(گوگل!C10=کلید!B$2,3,IF(گوگل!C10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
         <f>IF(گوگل!D10=کلید!C$2,3,IF(گوگل!D10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
         <f>IF(گوگل!E10=کلید!D$2,3,IF(گوگل!E10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="12">
         <f>IF(گوگل!F10=کلید!E$2,3,IF(گوگل!F10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <f>IF(گوگل!G10=کلید!F$2,3,IF(گوگل!G10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="12">
         <f>IF(گوگل!H10=کلید!G$2,3,IF(گوگل!H10="",0,-1))</f>
@@ -2717,7 +2727,7 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2731,23 +2741,23 @@
       </c>
       <c r="C11" s="12">
         <f>IF(گوگل!C11=کلید!B$2,3,IF(گوگل!C11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
         <f>IF(گوگل!D11=کلید!C$2,3,IF(گوگل!D11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="12">
         <f>IF(گوگل!E11=کلید!D$2,3,IF(گوگل!E11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12">
         <f>IF(گوگل!F11=کلید!E$2,3,IF(گوگل!F11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
         <f>IF(گوگل!G11=کلید!F$2,3,IF(گوگل!G11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="12">
         <f>IF(گوگل!H11=کلید!G$2,3,IF(گوگل!H11="",0,-1))</f>
@@ -2771,7 +2781,7 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2785,23 +2795,23 @@
       </c>
       <c r="C12" s="12">
         <f>IF(گوگل!C12=کلید!B$2,3,IF(گوگل!C12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12">
         <f>IF(گوگل!D12=کلید!C$2,3,IF(گوگل!D12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12">
         <f>IF(گوگل!E12=کلید!D$2,3,IF(گوگل!E12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12">
         <f>IF(گوگل!F12=کلید!E$2,3,IF(گوگل!F12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
         <f>IF(گوگل!G12=کلید!F$2,3,IF(گوگل!G12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
         <f>IF(گوگل!H12=کلید!G$2,3,IF(گوگل!H12="",0,-1))</f>
@@ -2825,7 +2835,7 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2839,23 +2849,23 @@
       </c>
       <c r="C13" s="12">
         <f>IF(گوگل!C13=کلید!B$2,3,IF(گوگل!C13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12">
         <f>IF(گوگل!D13=کلید!C$2,3,IF(گوگل!D13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12">
         <f>IF(گوگل!E13=کلید!D$2,3,IF(گوگل!E13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12">
         <f>IF(گوگل!F13=کلید!E$2,3,IF(گوگل!F13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <f>IF(گوگل!G13=کلید!F$2,3,IF(گوگل!G13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12">
         <f>IF(گوگل!H13=کلید!G$2,3,IF(گوگل!H13="",0,-1))</f>
@@ -2879,7 +2889,7 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2893,23 +2903,23 @@
       </c>
       <c r="C14" s="12">
         <f>IF(گوگل!C14=کلید!B$2,3,IF(گوگل!C14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12">
         <f>IF(گوگل!D14=کلید!C$2,3,IF(گوگل!D14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="12">
         <f>IF(گوگل!E14=کلید!D$2,3,IF(گوگل!E14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12">
         <f>IF(گوگل!F14=کلید!E$2,3,IF(گوگل!F14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="12">
         <f>IF(گوگل!G14=کلید!F$2,3,IF(گوگل!G14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="12">
         <f>IF(گوگل!H14=کلید!G$2,3,IF(گوگل!H14="",0,-1))</f>
@@ -2933,7 +2943,7 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2947,23 +2957,23 @@
       </c>
       <c r="C15" s="12">
         <f>IF(گوگل!C15=کلید!B$2,3,IF(گوگل!C15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
         <f>IF(گوگل!D15=کلید!C$2,3,IF(گوگل!D15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12">
         <f>IF(گوگل!E15=کلید!D$2,3,IF(گوگل!E15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12">
         <f>IF(گوگل!F15=کلید!E$2,3,IF(گوگل!F15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
         <f>IF(گوگل!G15=کلید!F$2,3,IF(گوگل!G15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="12">
         <f>IF(گوگل!H15=کلید!G$2,3,IF(گوگل!H15="",0,-1))</f>
@@ -2987,7 +2997,7 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3001,23 +3011,23 @@
       </c>
       <c r="C16" s="12">
         <f>IF(گوگل!C16=کلید!B$2,3,IF(گوگل!C16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="12">
         <f>IF(گوگل!D16=کلید!C$2,3,IF(گوگل!D16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="12">
         <f>IF(گوگل!E16=کلید!D$2,3,IF(گوگل!E16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="12">
         <f>IF(گوگل!F16=کلید!E$2,3,IF(گوگل!F16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="12">
         <f>IF(گوگل!G16=کلید!F$2,3,IF(گوگل!G16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12">
         <f>IF(گوگل!H16=کلید!G$2,3,IF(گوگل!H16="",0,-1))</f>
@@ -3041,7 +3051,7 @@
       </c>
       <c r="M16" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3055,23 +3065,23 @@
       </c>
       <c r="C17" s="12">
         <f>IF(گوگل!C17=کلید!B$2,3,IF(گوگل!C17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="12">
         <f>IF(گوگل!D17=کلید!C$2,3,IF(گوگل!D17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="12">
         <f>IF(گوگل!E17=کلید!D$2,3,IF(گوگل!E17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
         <f>IF(گوگل!F17=کلید!E$2,3,IF(گوگل!F17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="12">
         <f>IF(گوگل!G17=کلید!F$2,3,IF(گوگل!G17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
         <f>IF(گوگل!H17=کلید!G$2,3,IF(گوگل!H17="",0,-1))</f>
@@ -3095,7 +3105,7 @@
       </c>
       <c r="M17" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3109,23 +3119,23 @@
       </c>
       <c r="C18" s="12">
         <f>IF(گوگل!C18=کلید!B$2,3,IF(گوگل!C18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="12">
         <f>IF(گوگل!D18=کلید!C$2,3,IF(گوگل!D18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12">
         <f>IF(گوگل!E18=کلید!D$2,3,IF(گوگل!E18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="12">
         <f>IF(گوگل!F18=کلید!E$2,3,IF(گوگل!F18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="12">
         <f>IF(گوگل!G18=کلید!F$2,3,IF(گوگل!G18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="12">
         <f>IF(گوگل!H18=کلید!G$2,3,IF(گوگل!H18="",0,-1))</f>
@@ -3149,7 +3159,7 @@
       </c>
       <c r="M18" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3163,23 +3173,23 @@
       </c>
       <c r="C19" s="12">
         <f>IF(گوگل!C19=کلید!B$2,3,IF(گوگل!C19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="12">
         <f>IF(گوگل!D19=کلید!C$2,3,IF(گوگل!D19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="12">
         <f>IF(گوگل!E19=کلید!D$2,3,IF(گوگل!E19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="12">
         <f>IF(گوگل!F19=کلید!E$2,3,IF(گوگل!F19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="12">
         <f>IF(گوگل!G19=کلید!F$2,3,IF(گوگل!G19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="12">
         <f>IF(گوگل!H19=کلید!G$2,3,IF(گوگل!H19="",0,-1))</f>
@@ -3203,7 +3213,7 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3217,23 +3227,23 @@
       </c>
       <c r="C20" s="12">
         <f>IF(گوگل!C20=کلید!B$2,3,IF(گوگل!C20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="12">
         <f>IF(گوگل!D20=کلید!C$2,3,IF(گوگل!D20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="12">
         <f>IF(گوگل!E20=کلید!D$2,3,IF(گوگل!E20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="12">
         <f>IF(گوگل!F20=کلید!E$2,3,IF(گوگل!F20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="12">
         <f>IF(گوگل!G20=کلید!F$2,3,IF(گوگل!G20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="12">
         <f>IF(گوگل!H20=کلید!G$2,3,IF(گوگل!H20="",0,-1))</f>
@@ -3257,7 +3267,7 @@
       </c>
       <c r="M20" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3271,23 +3281,23 @@
       </c>
       <c r="C21" s="12">
         <f>IF(گوگل!C21=کلید!B$2,3,IF(گوگل!C21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="12">
         <f>IF(گوگل!D21=کلید!C$2,3,IF(گوگل!D21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="12">
         <f>IF(گوگل!E21=کلید!D$2,3,IF(گوگل!E21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="12">
         <f>IF(گوگل!F21=کلید!E$2,3,IF(گوگل!F21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12">
         <f>IF(گوگل!G21=کلید!F$2,3,IF(گوگل!G21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12">
         <f>IF(گوگل!H21=کلید!G$2,3,IF(گوگل!H21="",0,-1))</f>
@@ -3311,7 +3321,7 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3325,23 +3335,23 @@
       </c>
       <c r="C22" s="12">
         <f>IF(گوگل!C22=کلید!B$2,3,IF(گوگل!C22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="12">
         <f>IF(گوگل!D22=کلید!C$2,3,IF(گوگل!D22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="12">
         <f>IF(گوگل!E22=کلید!D$2,3,IF(گوگل!E22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="12">
         <f>IF(گوگل!F22=کلید!E$2,3,IF(گوگل!F22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="12">
         <f>IF(گوگل!G22=کلید!F$2,3,IF(گوگل!G22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="12">
         <f>IF(گوگل!H22=کلید!G$2,3,IF(گوگل!H22="",0,-1))</f>
@@ -3365,7 +3375,7 @@
       </c>
       <c r="M22" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3379,23 +3389,23 @@
       </c>
       <c r="C23" s="12">
         <f>IF(گوگل!C23=کلید!B$2,3,IF(گوگل!C23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="12">
         <f>IF(گوگل!D23=کلید!C$2,3,IF(گوگل!D23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="12">
         <f>IF(گوگل!E23=کلید!D$2,3,IF(گوگل!E23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="12">
         <f>IF(گوگل!F23=کلید!E$2,3,IF(گوگل!F23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" s="12">
         <f>IF(گوگل!G23=کلید!F$2,3,IF(گوگل!G23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="12">
         <f>IF(گوگل!H23=کلید!G$2,3,IF(گوگل!H23="",0,-1))</f>
@@ -3419,7 +3429,7 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3433,23 +3443,23 @@
       </c>
       <c r="C24" s="12">
         <f>IF(گوگل!C24=کلید!B$2,3,IF(گوگل!C24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" s="12">
         <f>IF(گوگل!D24=کلید!C$2,3,IF(گوگل!D24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="12">
         <f>IF(گوگل!E24=کلید!D$2,3,IF(گوگل!E24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="12">
         <f>IF(گوگل!F24=کلید!E$2,3,IF(گوگل!F24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="12">
         <f>IF(گوگل!G24=کلید!F$2,3,IF(گوگل!G24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="12">
         <f>IF(گوگل!H24=کلید!G$2,3,IF(گوگل!H24="",0,-1))</f>
@@ -3473,7 +3483,7 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3487,23 +3497,23 @@
       </c>
       <c r="C25" s="12">
         <f>IF(گوگل!C25=کلید!B$2,3,IF(گوگل!C25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="12">
         <f>IF(گوگل!D25=کلید!C$2,3,IF(گوگل!D25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="12">
         <f>IF(گوگل!E25=کلید!D$2,3,IF(گوگل!E25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="12">
         <f>IF(گوگل!F25=کلید!E$2,3,IF(گوگل!F25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="12">
         <f>IF(گوگل!G25=کلید!F$2,3,IF(گوگل!G25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="12">
         <f>IF(گوگل!H25=کلید!G$2,3,IF(گوگل!H25="",0,-1))</f>
@@ -3527,7 +3537,7 @@
       </c>
       <c r="M25" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3541,23 +3551,23 @@
       </c>
       <c r="C26" s="12">
         <f>IF(گوگل!C26=کلید!B$2,3,IF(گوگل!C26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="12">
         <f>IF(گوگل!D26=کلید!C$2,3,IF(گوگل!D26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="12">
         <f>IF(گوگل!E26=کلید!D$2,3,IF(گوگل!E26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="12">
         <f>IF(گوگل!F26=کلید!E$2,3,IF(گوگل!F26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="12">
         <f>IF(گوگل!G26=کلید!F$2,3,IF(گوگل!G26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="12">
         <f>IF(گوگل!H26=کلید!G$2,3,IF(گوگل!H26="",0,-1))</f>
@@ -3581,7 +3591,7 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3595,23 +3605,23 @@
       </c>
       <c r="C27" s="12">
         <f>IF(گوگل!C27=کلید!B$2,3,IF(گوگل!C27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="12">
         <f>IF(گوگل!D27=کلید!C$2,3,IF(گوگل!D27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="12">
         <f>IF(گوگل!E27=کلید!D$2,3,IF(گوگل!E27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="12">
         <f>IF(گوگل!F27=کلید!E$2,3,IF(گوگل!F27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="12">
         <f>IF(گوگل!G27=کلید!F$2,3,IF(گوگل!G27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="12">
         <f>IF(گوگل!H27=کلید!G$2,3,IF(گوگل!H27="",0,-1))</f>
@@ -3635,7 +3645,7 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3649,23 +3659,23 @@
       </c>
       <c r="C28" s="12">
         <f>IF(گوگل!C28=کلید!B$2,3,IF(گوگل!C28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="12">
         <f>IF(گوگل!D28=کلید!C$2,3,IF(گوگل!D28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="12">
         <f>IF(گوگل!E28=کلید!D$2,3,IF(گوگل!E28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="12">
         <f>IF(گوگل!F28=کلید!E$2,3,IF(گوگل!F28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="12">
         <f>IF(گوگل!G28=کلید!F$2,3,IF(گوگل!G28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" s="12">
         <f>IF(گوگل!H28=کلید!G$2,3,IF(گوگل!H28="",0,-1))</f>
@@ -3689,7 +3699,7 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3703,23 +3713,23 @@
       </c>
       <c r="C29" s="12">
         <f>IF(گوگل!C29=کلید!B$2,3,IF(گوگل!C29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="12">
         <f>IF(گوگل!D29=کلید!C$2,3,IF(گوگل!D29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="12">
         <f>IF(گوگل!E29=کلید!D$2,3,IF(گوگل!E29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29" s="12">
         <f>IF(گوگل!F29=کلید!E$2,3,IF(گوگل!F29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12">
         <f>IF(گوگل!G29=کلید!F$2,3,IF(گوگل!G29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" s="12">
         <f>IF(گوگل!H29=کلید!G$2,3,IF(گوگل!H29="",0,-1))</f>
@@ -3743,7 +3753,7 @@
       </c>
       <c r="M29" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3757,23 +3767,23 @@
       </c>
       <c r="C30" s="12">
         <f>IF(گوگل!C30=کلید!B$2,3,IF(گوگل!C30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="12">
         <f>IF(گوگل!D30=کلید!C$2,3,IF(گوگل!D30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" s="12">
         <f>IF(گوگل!E30=کلید!D$2,3,IF(گوگل!E30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" s="12">
         <f>IF(گوگل!F30=کلید!E$2,3,IF(گوگل!F30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="12">
         <f>IF(گوگل!G30=کلید!F$2,3,IF(گوگل!G30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="12">
         <f>IF(گوگل!H30=کلید!G$2,3,IF(گوگل!H30="",0,-1))</f>
@@ -3797,7 +3807,7 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3811,23 +3821,23 @@
       </c>
       <c r="C31" s="12">
         <f>IF(گوگل!C31=کلید!B$2,3,IF(گوگل!C31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" s="12">
         <f>IF(گوگل!D31=کلید!C$2,3,IF(گوگل!D31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="12">
         <f>IF(گوگل!E31=کلید!D$2,3,IF(گوگل!E31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="12">
         <f>IF(گوگل!F31=کلید!E$2,3,IF(گوگل!F31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="12">
         <f>IF(گوگل!G31=کلید!F$2,3,IF(گوگل!G31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12">
         <f>IF(گوگل!H31=کلید!G$2,3,IF(گوگل!H31="",0,-1))</f>
@@ -3851,7 +3861,7 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3865,23 +3875,23 @@
       </c>
       <c r="C32" s="12">
         <f>IF(گوگل!C32=کلید!B$2,3,IF(گوگل!C32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" s="12">
         <f>IF(گوگل!D32=کلید!C$2,3,IF(گوگل!D32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="12">
         <f>IF(گوگل!E32=کلید!D$2,3,IF(گوگل!E32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32" s="12">
         <f>IF(گوگل!F32=کلید!E$2,3,IF(گوگل!F32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" s="12">
         <f>IF(گوگل!G32=کلید!F$2,3,IF(گوگل!G32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12">
         <f>IF(گوگل!H32=کلید!G$2,3,IF(گوگل!H32="",0,-1))</f>
@@ -3905,7 +3915,7 @@
       </c>
       <c r="M32" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3919,23 +3929,23 @@
       </c>
       <c r="C33" s="12">
         <f>IF(گوگل!C33=کلید!B$2,3,IF(گوگل!C33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="12">
         <f>IF(گوگل!D33=کلید!C$2,3,IF(گوگل!D33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="12">
         <f>IF(گوگل!E33=کلید!D$2,3,IF(گوگل!E33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="12">
         <f>IF(گوگل!F33=کلید!E$2,3,IF(گوگل!F33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="12">
         <f>IF(گوگل!G33=کلید!F$2,3,IF(گوگل!G33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="12">
         <f>IF(گوگل!H33=کلید!G$2,3,IF(گوگل!H33="",0,-1))</f>
@@ -3959,7 +3969,7 @@
       </c>
       <c r="M33" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3973,23 +3983,23 @@
       </c>
       <c r="C34" s="12">
         <f>IF(گوگل!C34=کلید!B$2,3,IF(گوگل!C34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" s="12">
         <f>IF(گوگل!D34=کلید!C$2,3,IF(گوگل!D34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" s="12">
         <f>IF(گوگل!E34=کلید!D$2,3,IF(گوگل!E34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="12">
         <f>IF(گوگل!F34=کلید!E$2,3,IF(گوگل!F34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" s="12">
         <f>IF(گوگل!G34=کلید!F$2,3,IF(گوگل!G34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" s="12">
         <f>IF(گوگل!H34=کلید!G$2,3,IF(گوگل!H34="",0,-1))</f>
@@ -4013,7 +4023,7 @@
       </c>
       <c r="M34" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4027,23 +4037,23 @@
       </c>
       <c r="C35" s="12">
         <f>IF(گوگل!C35=کلید!B$2,3,IF(گوگل!C35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35" s="12">
         <f>IF(گوگل!D35=کلید!C$2,3,IF(گوگل!D35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="12">
         <f>IF(گوگل!E35=کلید!D$2,3,IF(گوگل!E35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35" s="12">
         <f>IF(گوگل!F35=کلید!E$2,3,IF(گوگل!F35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="12">
         <f>IF(گوگل!G35=کلید!F$2,3,IF(گوگل!G35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" s="12">
         <f>IF(گوگل!H35=کلید!G$2,3,IF(گوگل!H35="",0,-1))</f>
@@ -4067,7 +4077,7 @@
       </c>
       <c r="M35" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4081,23 +4091,23 @@
       </c>
       <c r="C36" s="12">
         <f>IF(گوگل!C36=کلید!B$2,3,IF(گوگل!C36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" s="12">
         <f>IF(گوگل!D36=کلید!C$2,3,IF(گوگل!D36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" s="12">
         <f>IF(گوگل!E36=کلید!D$2,3,IF(گوگل!E36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="12">
         <f>IF(گوگل!F36=کلید!E$2,3,IF(گوگل!F36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" s="12">
         <f>IF(گوگل!G36=کلید!F$2,3,IF(گوگل!G36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12">
         <f>IF(گوگل!H36=کلید!G$2,3,IF(گوگل!H36="",0,-1))</f>
@@ -4121,7 +4131,7 @@
       </c>
       <c r="M36" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4135,23 +4145,23 @@
       </c>
       <c r="C37" s="12">
         <f>IF(گوگل!C37=کلید!B$2,3,IF(گوگل!C37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" s="12">
         <f>IF(گوگل!D37=کلید!C$2,3,IF(گوگل!D37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="12">
         <f>IF(گوگل!E37=کلید!D$2,3,IF(گوگل!E37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="12">
         <f>IF(گوگل!F37=کلید!E$2,3,IF(گوگل!F37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" s="12">
         <f>IF(گوگل!G37=کلید!F$2,3,IF(گوگل!G37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12">
         <f>IF(گوگل!H37=کلید!G$2,3,IF(گوگل!H37="",0,-1))</f>
@@ -4175,7 +4185,7 @@
       </c>
       <c r="M37" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4189,23 +4199,23 @@
       </c>
       <c r="C38" s="12">
         <f>IF(گوگل!C38=کلید!B$2,3,IF(گوگل!C38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D38" s="12">
         <f>IF(گوگل!D38=کلید!C$2,3,IF(گوگل!D38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38" s="12">
         <f>IF(گوگل!E38=کلید!D$2,3,IF(گوگل!E38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="12">
         <f>IF(گوگل!F38=کلید!E$2,3,IF(گوگل!F38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" s="12">
         <f>IF(گوگل!G38=کلید!F$2,3,IF(گوگل!G38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12">
         <f>IF(گوگل!H38=کلید!G$2,3,IF(گوگل!H38="",0,-1))</f>
@@ -4229,7 +4239,7 @@
       </c>
       <c r="M38" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4243,23 +4253,23 @@
       </c>
       <c r="C39" s="12">
         <f>IF(گوگل!C39=کلید!B$2,3,IF(گوگل!C39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" s="12">
         <f>IF(گوگل!D39=کلید!C$2,3,IF(گوگل!D39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="12">
         <f>IF(گوگل!E39=کلید!D$2,3,IF(گوگل!E39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="12">
         <f>IF(گوگل!F39=کلید!E$2,3,IF(گوگل!F39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39" s="12">
         <f>IF(گوگل!G39=کلید!F$2,3,IF(گوگل!G39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" s="12">
         <f>IF(گوگل!H39=کلید!G$2,3,IF(گوگل!H39="",0,-1))</f>
@@ -4283,7 +4293,7 @@
       </c>
       <c r="M39" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4297,23 +4307,23 @@
       </c>
       <c r="C40" s="12">
         <f>IF(گوگل!C40=کلید!B$2,3,IF(گوگل!C40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12">
         <f>IF(گوگل!D40=کلید!C$2,3,IF(گوگل!D40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40" s="12">
         <f>IF(گوگل!E40=کلید!D$2,3,IF(گوگل!E40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="12">
         <f>IF(گوگل!F40=کلید!E$2,3,IF(گوگل!F40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" s="12">
         <f>IF(گوگل!G40=کلید!F$2,3,IF(گوگل!G40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" s="12">
         <f>IF(گوگل!H40=کلید!G$2,3,IF(گوگل!H40="",0,-1))</f>
@@ -4337,7 +4347,7 @@
       </c>
       <c r="M40" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4351,23 +4361,23 @@
       </c>
       <c r="C41" s="12">
         <f>IF(گوگل!C41=کلید!B$2,3,IF(گوگل!C41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" s="12">
         <f>IF(گوگل!D41=کلید!C$2,3,IF(گوگل!D41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41" s="12">
         <f>IF(گوگل!E41=کلید!D$2,3,IF(گوگل!E41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="12">
         <f>IF(گوگل!F41=کلید!E$2,3,IF(گوگل!F41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="12">
         <f>IF(گوگل!G41=کلید!F$2,3,IF(گوگل!G41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="12">
         <f>IF(گوگل!H41=کلید!G$2,3,IF(گوگل!H41="",0,-1))</f>
@@ -4391,7 +4401,7 @@
       </c>
       <c r="M41" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4405,23 +4415,23 @@
       </c>
       <c r="C42" s="12">
         <f>IF(گوگل!C42=کلید!B$2,3,IF(گوگل!C42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" s="12">
         <f>IF(گوگل!D42=کلید!C$2,3,IF(گوگل!D42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" s="12">
         <f>IF(گوگل!E42=کلید!D$2,3,IF(گوگل!E42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" s="12">
         <f>IF(گوگل!F42=کلید!E$2,3,IF(گوگل!F42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="12">
         <f>IF(گوگل!G42=کلید!F$2,3,IF(گوگل!G42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" s="12">
         <f>IF(گوگل!H42=کلید!G$2,3,IF(گوگل!H42="",0,-1))</f>
@@ -4445,7 +4455,7 @@
       </c>
       <c r="M42" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4459,23 +4469,23 @@
       </c>
       <c r="C43" s="12">
         <f>IF(گوگل!C43=کلید!B$2,3,IF(گوگل!C43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" s="12">
         <f>IF(گوگل!D43=کلید!C$2,3,IF(گوگل!D43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43" s="12">
         <f>IF(گوگل!E43=کلید!D$2,3,IF(گوگل!E43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" s="12">
         <f>IF(گوگل!F43=کلید!E$2,3,IF(گوگل!F43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" s="12">
         <f>IF(گوگل!G43=کلید!F$2,3,IF(گوگل!G43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" s="12">
         <f>IF(گوگل!H43=کلید!G$2,3,IF(گوگل!H43="",0,-1))</f>
@@ -4499,7 +4509,7 @@
       </c>
       <c r="M43" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4513,23 +4523,23 @@
       </c>
       <c r="C44" s="12">
         <f>IF(گوگل!C44=کلید!B$2,3,IF(گوگل!C44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44" s="12">
         <f>IF(گوگل!D44=کلید!C$2,3,IF(گوگل!D44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
         <f>IF(گوگل!E44=کلید!D$2,3,IF(گوگل!E44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" s="12">
         <f>IF(گوگل!F44=کلید!E$2,3,IF(گوگل!F44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" s="12">
         <f>IF(گوگل!G44=کلید!F$2,3,IF(گوگل!G44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12">
         <f>IF(گوگل!H44=کلید!G$2,3,IF(گوگل!H44="",0,-1))</f>
@@ -4553,7 +4563,7 @@
       </c>
       <c r="M44" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -8002,23 +8012,23 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
@@ -8617,7 +8627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
@@ -11165,23 +11175,23 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>

--- a/week 6/مطالعات/Skale(V3.6).xlsx
+++ b/week 6/مطالعات/Skale(V3.6).xlsx
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2164,11 +2164,21 @@
       <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="G2" s="8">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>4</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2275,27 +2285,27 @@
       </c>
       <c r="H2" s="12">
         <f>IF(گوگل!H2=کلید!G$2,3,IF(گوگل!H2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="12">
         <f>IF(گوگل!I2=کلید!H$2,3,IF(گوگل!I2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="12">
         <f>IF(گوگل!J2=کلید!I$2,3,IF(گوگل!J2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="12">
         <f>IF(گوگل!K2=کلید!J$2,3,IF(گوگل!K2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="12">
         <f>IF(گوگل!L2=کلید!K$2,3,IF(گوگل!L2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="13">
         <f t="shared" ref="M2:M44" si="0">(SUM(C2:L2)/(30))*100</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2329,27 +2339,27 @@
       </c>
       <c r="H3" s="12">
         <f>IF(گوگل!H3=کلید!G$2,3,IF(گوگل!H3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="12">
         <f>IF(گوگل!I3=کلید!H$2,3,IF(گوگل!I3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="12">
         <f>IF(گوگل!J3=کلید!I$2,3,IF(گوگل!J3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="12">
         <f>IF(گوگل!K3=کلید!J$2,3,IF(گوگل!K3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="12">
         <f>IF(گوگل!L3=کلید!K$2,3,IF(گوگل!L3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2383,27 +2393,27 @@
       </c>
       <c r="H4" s="12">
         <f>IF(گوگل!H4=کلید!G$2,3,IF(گوگل!H4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="12">
         <f>IF(گوگل!I4=کلید!H$2,3,IF(گوگل!I4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="12">
         <f>IF(گوگل!J4=کلید!I$2,3,IF(گوگل!J4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12">
         <f>IF(گوگل!K4=کلید!J$2,3,IF(گوگل!K4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12">
         <f>IF(گوگل!L4=کلید!K$2,3,IF(گوگل!L4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2437,27 +2447,27 @@
       </c>
       <c r="H5" s="12">
         <f>IF(گوگل!H5=کلید!G$2,3,IF(گوگل!H5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="12">
         <f>IF(گوگل!I5=کلید!H$2,3,IF(گوگل!I5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="12">
         <f>IF(گوگل!J5=کلید!I$2,3,IF(گوگل!J5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="12">
         <f>IF(گوگل!K5=کلید!J$2,3,IF(گوگل!K5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="12">
         <f>IF(گوگل!L5=کلید!K$2,3,IF(گوگل!L5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2491,27 +2501,27 @@
       </c>
       <c r="H6" s="12">
         <f>IF(گوگل!H6=کلید!G$2,3,IF(گوگل!H6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="12">
         <f>IF(گوگل!I6=کلید!H$2,3,IF(گوگل!I6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="12">
         <f>IF(گوگل!J6=کلید!I$2,3,IF(گوگل!J6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="12">
         <f>IF(گوگل!K6=کلید!J$2,3,IF(گوگل!K6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="12">
         <f>IF(گوگل!L6=کلید!K$2,3,IF(گوگل!L6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2545,27 +2555,27 @@
       </c>
       <c r="H7" s="12">
         <f>IF(گوگل!H7=کلید!G$2,3,IF(گوگل!H7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <f>IF(گوگل!I7=کلید!H$2,3,IF(گوگل!I7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="12">
         <f>IF(گوگل!J7=کلید!I$2,3,IF(گوگل!J7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="12">
         <f>IF(گوگل!K7=کلید!J$2,3,IF(گوگل!K7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="12">
         <f>IF(گوگل!L7=کلید!K$2,3,IF(گوگل!L7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2599,27 +2609,27 @@
       </c>
       <c r="H8" s="12">
         <f>IF(گوگل!H8=کلید!G$2,3,IF(گوگل!H8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12">
         <f>IF(گوگل!I8=کلید!H$2,3,IF(گوگل!I8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="12">
         <f>IF(گوگل!J8=کلید!I$2,3,IF(گوگل!J8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="12">
         <f>IF(گوگل!K8=کلید!J$2,3,IF(گوگل!K8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="12">
         <f>IF(گوگل!L8=کلید!K$2,3,IF(گوگل!L8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2653,27 +2663,27 @@
       </c>
       <c r="H9" s="12">
         <f>IF(گوگل!H9=کلید!G$2,3,IF(گوگل!H9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12">
         <f>IF(گوگل!I9=کلید!H$2,3,IF(گوگل!I9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="12">
         <f>IF(گوگل!J9=کلید!I$2,3,IF(گوگل!J9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="12">
         <f>IF(گوگل!K9=کلید!J$2,3,IF(گوگل!K9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="12">
         <f>IF(گوگل!L9=کلید!K$2,3,IF(گوگل!L9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2707,27 +2717,27 @@
       </c>
       <c r="H10" s="12">
         <f>IF(گوگل!H10=کلید!G$2,3,IF(گوگل!H10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12">
         <f>IF(گوگل!I10=کلید!H$2,3,IF(گوگل!I10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="12">
         <f>IF(گوگل!J10=کلید!I$2,3,IF(گوگل!J10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="12">
         <f>IF(گوگل!K10=کلید!J$2,3,IF(گوگل!K10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="12">
         <f>IF(گوگل!L10=کلید!K$2,3,IF(گوگل!L10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2761,27 +2771,27 @@
       </c>
       <c r="H11" s="12">
         <f>IF(گوگل!H11=کلید!G$2,3,IF(گوگل!H11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12">
         <f>IF(گوگل!I11=کلید!H$2,3,IF(گوگل!I11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="12">
         <f>IF(گوگل!J11=کلید!I$2,3,IF(گوگل!J11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="12">
         <f>IF(گوگل!K11=کلید!J$2,3,IF(گوگل!K11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="12">
         <f>IF(گوگل!L11=کلید!K$2,3,IF(گوگل!L11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2815,27 +2825,27 @@
       </c>
       <c r="H12" s="12">
         <f>IF(گوگل!H12=کلید!G$2,3,IF(گوگل!H12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12">
         <f>IF(گوگل!I12=کلید!H$2,3,IF(گوگل!I12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="12">
         <f>IF(گوگل!J12=کلید!I$2,3,IF(گوگل!J12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="12">
         <f>IF(گوگل!K12=کلید!J$2,3,IF(گوگل!K12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" s="12">
         <f>IF(گوگل!L12=کلید!K$2,3,IF(گوگل!L12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2869,27 +2879,27 @@
       </c>
       <c r="H13" s="12">
         <f>IF(گوگل!H13=کلید!G$2,3,IF(گوگل!H13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="12">
         <f>IF(گوگل!I13=کلید!H$2,3,IF(گوگل!I13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="12">
         <f>IF(گوگل!J13=کلید!I$2,3,IF(گوگل!J13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="12">
         <f>IF(گوگل!K13=کلید!J$2,3,IF(گوگل!K13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="12">
         <f>IF(گوگل!L13=کلید!K$2,3,IF(گوگل!L13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2923,27 +2933,27 @@
       </c>
       <c r="H14" s="12">
         <f>IF(گوگل!H14=کلید!G$2,3,IF(گوگل!H14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12">
         <f>IF(گوگل!I14=کلید!H$2,3,IF(گوگل!I14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="12">
         <f>IF(گوگل!J14=کلید!I$2,3,IF(گوگل!J14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="12">
         <f>IF(گوگل!K14=کلید!J$2,3,IF(گوگل!K14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="12">
         <f>IF(گوگل!L14=کلید!K$2,3,IF(گوگل!L14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2977,27 +2987,27 @@
       </c>
       <c r="H15" s="12">
         <f>IF(گوگل!H15=کلید!G$2,3,IF(گوگل!H15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12">
         <f>IF(گوگل!I15=کلید!H$2,3,IF(گوگل!I15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="12">
         <f>IF(گوگل!J15=کلید!I$2,3,IF(گوگل!J15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="12">
         <f>IF(گوگل!K15=کلید!J$2,3,IF(گوگل!K15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" s="12">
         <f>IF(گوگل!L15=کلید!K$2,3,IF(گوگل!L15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3031,27 +3041,27 @@
       </c>
       <c r="H16" s="12">
         <f>IF(گوگل!H16=کلید!G$2,3,IF(گوگل!H16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="12">
         <f>IF(گوگل!I16=کلید!H$2,3,IF(گوگل!I16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" s="12">
         <f>IF(گوگل!J16=کلید!I$2,3,IF(گوگل!J16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="12">
         <f>IF(گوگل!K16=کلید!J$2,3,IF(گوگل!K16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="12">
         <f>IF(گوگل!L16=کلید!K$2,3,IF(گوگل!L16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3085,27 +3095,27 @@
       </c>
       <c r="H17" s="12">
         <f>IF(گوگل!H17=کلید!G$2,3,IF(گوگل!H17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="12">
         <f>IF(گوگل!I17=کلید!H$2,3,IF(گوگل!I17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="12">
         <f>IF(گوگل!J17=کلید!I$2,3,IF(گوگل!J17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="12">
         <f>IF(گوگل!K17=کلید!J$2,3,IF(گوگل!K17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" s="12">
         <f>IF(گوگل!L17=کلید!K$2,3,IF(گوگل!L17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3139,27 +3149,27 @@
       </c>
       <c r="H18" s="12">
         <f>IF(گوگل!H18=کلید!G$2,3,IF(گوگل!H18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="12">
         <f>IF(گوگل!I18=کلید!H$2,3,IF(گوگل!I18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" s="12">
         <f>IF(گوگل!J18=کلید!I$2,3,IF(گوگل!J18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="12">
         <f>IF(گوگل!K18=کلید!J$2,3,IF(گوگل!K18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="12">
         <f>IF(گوگل!L18=کلید!K$2,3,IF(گوگل!L18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3193,27 +3203,27 @@
       </c>
       <c r="H19" s="12">
         <f>IF(گوگل!H19=کلید!G$2,3,IF(گوگل!H19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="12">
         <f>IF(گوگل!I19=کلید!H$2,3,IF(گوگل!I19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="12">
         <f>IF(گوگل!J19=کلید!I$2,3,IF(گوگل!J19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" s="12">
         <f>IF(گوگل!K19=کلید!J$2,3,IF(گوگل!K19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" s="12">
         <f>IF(گوگل!L19=کلید!K$2,3,IF(گوگل!L19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3247,27 +3257,27 @@
       </c>
       <c r="H20" s="12">
         <f>IF(گوگل!H20=کلید!G$2,3,IF(گوگل!H20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="12">
         <f>IF(گوگل!I20=کلید!H$2,3,IF(گوگل!I20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" s="12">
         <f>IF(گوگل!J20=کلید!I$2,3,IF(گوگل!J20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="12">
         <f>IF(گوگل!K20=کلید!J$2,3,IF(گوگل!K20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="12">
         <f>IF(گوگل!L20=کلید!K$2,3,IF(گوگل!L20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3301,27 +3311,27 @@
       </c>
       <c r="H21" s="12">
         <f>IF(گوگل!H21=کلید!G$2,3,IF(گوگل!H21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="12">
         <f>IF(گوگل!I21=کلید!H$2,3,IF(گوگل!I21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" s="12">
         <f>IF(گوگل!J21=کلید!I$2,3,IF(گوگل!J21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="12">
         <f>IF(گوگل!K21=کلید!J$2,3,IF(گوگل!K21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="12">
         <f>IF(گوگل!L21=کلید!K$2,3,IF(گوگل!L21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3355,27 +3365,27 @@
       </c>
       <c r="H22" s="12">
         <f>IF(گوگل!H22=کلید!G$2,3,IF(گوگل!H22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="12">
         <f>IF(گوگل!I22=کلید!H$2,3,IF(گوگل!I22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" s="12">
         <f>IF(گوگل!J22=کلید!I$2,3,IF(گوگل!J22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="12">
         <f>IF(گوگل!K22=کلید!J$2,3,IF(گوگل!K22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <f>IF(گوگل!L22=کلید!K$2,3,IF(گوگل!L22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3409,27 +3419,27 @@
       </c>
       <c r="H23" s="12">
         <f>IF(گوگل!H23=کلید!G$2,3,IF(گوگل!H23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="12">
         <f>IF(گوگل!I23=کلید!H$2,3,IF(گوگل!I23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="12">
         <f>IF(گوگل!J23=کلید!I$2,3,IF(گوگل!J23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" s="12">
         <f>IF(گوگل!K23=کلید!J$2,3,IF(گوگل!K23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="12">
         <f>IF(گوگل!L23=کلید!K$2,3,IF(گوگل!L23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3463,27 +3473,27 @@
       </c>
       <c r="H24" s="12">
         <f>IF(گوگل!H24=کلید!G$2,3,IF(گوگل!H24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="12">
         <f>IF(گوگل!I24=کلید!H$2,3,IF(گوگل!I24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="12">
         <f>IF(گوگل!J24=کلید!I$2,3,IF(گوگل!J24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="12">
         <f>IF(گوگل!K24=کلید!J$2,3,IF(گوگل!K24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L24" s="12">
         <f>IF(گوگل!L24=کلید!K$2,3,IF(گوگل!L24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3517,27 +3527,27 @@
       </c>
       <c r="H25" s="12">
         <f>IF(گوگل!H25=کلید!G$2,3,IF(گوگل!H25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="12">
         <f>IF(گوگل!I25=کلید!H$2,3,IF(گوگل!I25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" s="12">
         <f>IF(گوگل!J25=کلید!I$2,3,IF(گوگل!J25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="12">
         <f>IF(گوگل!K25=کلید!J$2,3,IF(گوگل!K25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" s="12">
         <f>IF(گوگل!L25=کلید!K$2,3,IF(گوگل!L25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3571,27 +3581,27 @@
       </c>
       <c r="H26" s="12">
         <f>IF(گوگل!H26=کلید!G$2,3,IF(گوگل!H26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" s="12">
         <f>IF(گوگل!I26=کلید!H$2,3,IF(گوگل!I26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" s="12">
         <f>IF(گوگل!J26=کلید!I$2,3,IF(گوگل!J26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="12">
         <f>IF(گوگل!K26=کلید!J$2,3,IF(گوگل!K26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26" s="12">
         <f>IF(گوگل!L26=کلید!K$2,3,IF(گوگل!L26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3625,27 +3635,27 @@
       </c>
       <c r="H27" s="12">
         <f>IF(گوگل!H27=کلید!G$2,3,IF(گوگل!H27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" s="12">
         <f>IF(گوگل!I27=کلید!H$2,3,IF(گوگل!I27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" s="12">
         <f>IF(گوگل!J27=کلید!I$2,3,IF(گوگل!J27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="12">
         <f>IF(گوگل!K27=کلید!J$2,3,IF(گوگل!K27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27" s="12">
         <f>IF(گوگل!L27=کلید!K$2,3,IF(گوگل!L27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3679,27 +3689,27 @@
       </c>
       <c r="H28" s="12">
         <f>IF(گوگل!H28=کلید!G$2,3,IF(گوگل!H28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="12">
         <f>IF(گوگل!I28=کلید!H$2,3,IF(گوگل!I28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="12">
         <f>IF(گوگل!J28=کلید!I$2,3,IF(گوگل!J28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" s="12">
         <f>IF(گوگل!K28=کلید!J$2,3,IF(گوگل!K28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" s="12">
         <f>IF(گوگل!L28=کلید!K$2,3,IF(گوگل!L28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3733,27 +3743,27 @@
       </c>
       <c r="H29" s="12">
         <f>IF(گوگل!H29=کلید!G$2,3,IF(گوگل!H29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="12">
         <f>IF(گوگل!I29=کلید!H$2,3,IF(گوگل!I29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" s="12">
         <f>IF(گوگل!J29=کلید!I$2,3,IF(گوگل!J29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="12">
         <f>IF(گوگل!K29=کلید!J$2,3,IF(گوگل!K29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" s="12">
         <f>IF(گوگل!L29=کلید!K$2,3,IF(گوگل!L29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3787,27 +3797,27 @@
       </c>
       <c r="H30" s="12">
         <f>IF(گوگل!H30=کلید!G$2,3,IF(گوگل!H30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" s="12">
         <f>IF(گوگل!I30=کلید!H$2,3,IF(گوگل!I30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" s="12">
         <f>IF(گوگل!J30=کلید!I$2,3,IF(گوگل!J30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30" s="12">
         <f>IF(گوگل!K30=کلید!J$2,3,IF(گوگل!K30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="12">
         <f>IF(گوگل!L30=کلید!K$2,3,IF(گوگل!L30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3841,27 +3851,27 @@
       </c>
       <c r="H31" s="12">
         <f>IF(گوگل!H31=کلید!G$2,3,IF(گوگل!H31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" s="12">
         <f>IF(گوگل!I31=کلید!H$2,3,IF(گوگل!I31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="12">
         <f>IF(گوگل!J31=کلید!I$2,3,IF(گوگل!J31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="12">
         <f>IF(گوگل!K31=کلید!J$2,3,IF(گوگل!K31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" s="12">
         <f>IF(گوگل!L31=کلید!K$2,3,IF(گوگل!L31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3895,27 +3905,27 @@
       </c>
       <c r="H32" s="12">
         <f>IF(گوگل!H32=کلید!G$2,3,IF(گوگل!H32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" s="12">
         <f>IF(گوگل!I32=کلید!H$2,3,IF(گوگل!I32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="12">
         <f>IF(گوگل!J32=کلید!I$2,3,IF(گوگل!J32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K32" s="12">
         <f>IF(گوگل!K32=کلید!J$2,3,IF(گوگل!K32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" s="12">
         <f>IF(گوگل!L32=کلید!K$2,3,IF(گوگل!L32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3949,27 +3959,27 @@
       </c>
       <c r="H33" s="12">
         <f>IF(گوگل!H33=کلید!G$2,3,IF(گوگل!H33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" s="12">
         <f>IF(گوگل!I33=کلید!H$2,3,IF(گوگل!I33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="12">
         <f>IF(گوگل!J33=کلید!I$2,3,IF(گوگل!J33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K33" s="12">
         <f>IF(گوگل!K33=کلید!J$2,3,IF(گوگل!K33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <f>IF(گوگل!L33=کلید!K$2,3,IF(گوگل!L33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4003,27 +4013,27 @@
       </c>
       <c r="H34" s="12">
         <f>IF(گوگل!H34=کلید!G$2,3,IF(گوگل!H34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" s="12">
         <f>IF(گوگل!I34=کلید!H$2,3,IF(گوگل!I34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="12">
         <f>IF(گوگل!J34=کلید!I$2,3,IF(گوگل!J34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" s="12">
         <f>IF(گوگل!K34=کلید!J$2,3,IF(گوگل!K34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" s="12">
         <f>IF(گوگل!L34=کلید!K$2,3,IF(گوگل!L34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4057,27 +4067,27 @@
       </c>
       <c r="H35" s="12">
         <f>IF(گوگل!H35=کلید!G$2,3,IF(گوگل!H35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" s="12">
         <f>IF(گوگل!I35=کلید!H$2,3,IF(گوگل!I35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" s="12">
         <f>IF(گوگل!J35=کلید!I$2,3,IF(گوگل!J35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" s="12">
         <f>IF(گوگل!K35=کلید!J$2,3,IF(گوگل!K35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35" s="12">
         <f>IF(گوگل!L35=کلید!K$2,3,IF(گوگل!L35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4111,27 +4121,27 @@
       </c>
       <c r="H36" s="12">
         <f>IF(گوگل!H36=کلید!G$2,3,IF(گوگل!H36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" s="12">
         <f>IF(گوگل!I36=کلید!H$2,3,IF(گوگل!I36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" s="12">
         <f>IF(گوگل!J36=کلید!I$2,3,IF(گوگل!J36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36" s="12">
         <f>IF(گوگل!K36=کلید!J$2,3,IF(گوگل!K36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36" s="12">
         <f>IF(گوگل!L36=کلید!K$2,3,IF(گوگل!L36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4165,27 +4175,27 @@
       </c>
       <c r="H37" s="12">
         <f>IF(گوگل!H37=کلید!G$2,3,IF(گوگل!H37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" s="12">
         <f>IF(گوگل!I37=کلید!H$2,3,IF(گوگل!I37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" s="12">
         <f>IF(گوگل!J37=کلید!I$2,3,IF(گوگل!J37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="12">
         <f>IF(گوگل!K37=کلید!J$2,3,IF(گوگل!K37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37" s="12">
         <f>IF(گوگل!L37=کلید!K$2,3,IF(گوگل!L37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4219,27 +4229,27 @@
       </c>
       <c r="H38" s="12">
         <f>IF(گوگل!H38=کلید!G$2,3,IF(گوگل!H38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" s="12">
         <f>IF(گوگل!I38=کلید!H$2,3,IF(گوگل!I38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" s="12">
         <f>IF(گوگل!J38=کلید!I$2,3,IF(گوگل!J38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" s="12">
         <f>IF(گوگل!K38=کلید!J$2,3,IF(گوگل!K38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38" s="12">
         <f>IF(گوگل!L38=کلید!K$2,3,IF(گوگل!L38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M38" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4273,27 +4283,27 @@
       </c>
       <c r="H39" s="12">
         <f>IF(گوگل!H39=کلید!G$2,3,IF(گوگل!H39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" s="12">
         <f>IF(گوگل!I39=کلید!H$2,3,IF(گوگل!I39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" s="12">
         <f>IF(گوگل!J39=کلید!I$2,3,IF(گوگل!J39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39" s="12">
         <f>IF(گوگل!K39=کلید!J$2,3,IF(گوگل!K39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39" s="12">
         <f>IF(گوگل!L39=کلید!K$2,3,IF(گوگل!L39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4327,27 +4337,27 @@
       </c>
       <c r="H40" s="12">
         <f>IF(گوگل!H40=کلید!G$2,3,IF(گوگل!H40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" s="12">
         <f>IF(گوگل!I40=کلید!H$2,3,IF(گوگل!I40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" s="12">
         <f>IF(گوگل!J40=کلید!I$2,3,IF(گوگل!J40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40" s="12">
         <f>IF(گوگل!K40=کلید!J$2,3,IF(گوگل!K40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" s="12">
         <f>IF(گوگل!L40=کلید!K$2,3,IF(گوگل!L40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4381,27 +4391,27 @@
       </c>
       <c r="H41" s="12">
         <f>IF(گوگل!H41=کلید!G$2,3,IF(گوگل!H41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" s="12">
         <f>IF(گوگل!I41=کلید!H$2,3,IF(گوگل!I41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" s="12">
         <f>IF(گوگل!J41=کلید!I$2,3,IF(گوگل!J41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K41" s="12">
         <f>IF(گوگل!K41=کلید!J$2,3,IF(گوگل!K41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41" s="12">
         <f>IF(گوگل!L41=کلید!K$2,3,IF(گوگل!L41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M41" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4435,27 +4445,27 @@
       </c>
       <c r="H42" s="12">
         <f>IF(گوگل!H42=کلید!G$2,3,IF(گوگل!H42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" s="12">
         <f>IF(گوگل!I42=کلید!H$2,3,IF(گوگل!I42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" s="12">
         <f>IF(گوگل!J42=کلید!I$2,3,IF(گوگل!J42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42" s="12">
         <f>IF(گوگل!K42=کلید!J$2,3,IF(گوگل!K42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42" s="12">
         <f>IF(گوگل!L42=کلید!K$2,3,IF(گوگل!L42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4489,27 +4499,27 @@
       </c>
       <c r="H43" s="12">
         <f>IF(گوگل!H43=کلید!G$2,3,IF(گوگل!H43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" s="12">
         <f>IF(گوگل!I43=کلید!H$2,3,IF(گوگل!I43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" s="12">
         <f>IF(گوگل!J43=کلید!I$2,3,IF(گوگل!J43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43" s="12">
         <f>IF(گوگل!K43=کلید!J$2,3,IF(گوگل!K43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43" s="12">
         <f>IF(گوگل!L43=کلید!K$2,3,IF(گوگل!L43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M43" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4543,27 +4553,27 @@
       </c>
       <c r="H44" s="12">
         <f>IF(گوگل!H44=کلید!G$2,3,IF(گوگل!H44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" s="12">
         <f>IF(گوگل!I44=کلید!H$2,3,IF(گوگل!I44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" s="12">
         <f>IF(گوگل!J44=کلید!I$2,3,IF(گوگل!J44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K44" s="12">
         <f>IF(گوگل!K44=کلید!J$2,3,IF(گوگل!K44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" s="12">
         <f>IF(گوگل!L44=کلید!K$2,3,IF(گوگل!L44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" s="13">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -8032,23 +8042,23 @@
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>
@@ -11195,23 +11205,23 @@
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>

--- a/week 6/مطالعات/Skale(V3.6).xlsx
+++ b/week 6/مطالعات/Skale(V3.6).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="گوگل" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="77">
   <si>
     <t>نام</t>
   </si>
@@ -234,6 +234,33 @@
   </si>
   <si>
     <t>پیام</t>
+  </si>
+  <si>
+    <t>علیرضا باقری هوجقان</t>
+  </si>
+  <si>
+    <t>محمدجواد امیدی شورجه</t>
+  </si>
+  <si>
+    <t>محمدامین لطفی حاجی آقا</t>
+  </si>
+  <si>
+    <t>امین بابایی خمیران</t>
+  </si>
+  <si>
+    <t>محسن موسیوندارزانفودی</t>
+  </si>
+  <si>
+    <t>حسین محسن وند بناب</t>
+  </si>
+  <si>
+    <t>بنیامین لطفی کاظمی</t>
+  </si>
+  <si>
+    <t>هادی آذری ایردموسی</t>
+  </si>
+  <si>
+    <t>امیرمهدی امانی پیرگلین</t>
   </si>
 </sst>
 </file>
@@ -1422,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1472,467 +1499,1241 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1017</v>
+      </c>
+      <c r="C2" s="44">
+        <v>1</v>
+      </c>
+      <c r="D2" s="44">
+        <v>4</v>
+      </c>
+      <c r="E2" s="44">
+        <v>2</v>
+      </c>
+      <c r="F2" s="44">
+        <v>4</v>
+      </c>
+      <c r="G2" s="45">
+        <v>1</v>
+      </c>
+      <c r="H2" s="44">
+        <v>4</v>
+      </c>
+      <c r="I2" s="44">
+        <v>1</v>
+      </c>
+      <c r="J2" s="44">
+        <v>4</v>
+      </c>
+      <c r="K2" s="44">
+        <v>2</v>
+      </c>
+      <c r="L2" s="44">
+        <v>4</v>
+      </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="A3" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1008</v>
+      </c>
+      <c r="C3" s="44">
+        <v>4</v>
+      </c>
+      <c r="D3" s="44">
+        <v>1</v>
+      </c>
+      <c r="E3" s="44">
+        <v>2</v>
+      </c>
+      <c r="F3" s="44">
+        <v>4</v>
+      </c>
+      <c r="G3" s="44">
+        <v>1</v>
+      </c>
+      <c r="H3" s="44">
+        <v>4</v>
+      </c>
+      <c r="I3" s="44">
+        <v>1</v>
+      </c>
+      <c r="J3" s="44">
+        <v>4</v>
+      </c>
+      <c r="K3" s="44">
+        <v>2</v>
+      </c>
+      <c r="L3" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="A4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1024</v>
+      </c>
+      <c r="C4" s="44">
+        <v>4</v>
+      </c>
+      <c r="D4" s="44">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44">
+        <v>2</v>
+      </c>
+      <c r="F4" s="44">
+        <v>1</v>
+      </c>
+      <c r="G4" s="45">
+        <v>1</v>
+      </c>
+      <c r="H4" s="44">
+        <v>4</v>
+      </c>
+      <c r="I4" s="44">
+        <v>1</v>
+      </c>
+      <c r="J4" s="44">
+        <v>4</v>
+      </c>
+      <c r="K4" s="44">
+        <v>2</v>
+      </c>
+      <c r="L4" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="A5" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1011</v>
+      </c>
+      <c r="C5" s="44">
+        <v>4</v>
+      </c>
+      <c r="D5" s="44">
+        <v>4</v>
+      </c>
+      <c r="E5" s="44">
+        <v>2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>4</v>
+      </c>
+      <c r="G5" s="44">
+        <v>1</v>
+      </c>
+      <c r="H5" s="44">
+        <v>4</v>
+      </c>
+      <c r="I5" s="44">
+        <v>1</v>
+      </c>
+      <c r="J5" s="44">
+        <v>4</v>
+      </c>
+      <c r="K5" s="44">
+        <v>2</v>
+      </c>
+      <c r="L5" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="A6" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1026</v>
+      </c>
+      <c r="C6" s="44">
+        <v>4</v>
+      </c>
+      <c r="D6" s="44">
+        <v>1</v>
+      </c>
+      <c r="E6" s="44">
+        <v>2</v>
+      </c>
+      <c r="F6" s="44">
+        <v>4</v>
+      </c>
+      <c r="G6" s="45">
+        <v>1</v>
+      </c>
+      <c r="H6" s="44">
+        <v>4</v>
+      </c>
+      <c r="I6" s="44">
+        <v>1</v>
+      </c>
+      <c r="J6" s="44">
+        <v>4</v>
+      </c>
+      <c r="K6" s="44">
+        <v>2</v>
+      </c>
+      <c r="L6" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1038</v>
+      </c>
+      <c r="C7" s="44">
+        <v>4</v>
+      </c>
+      <c r="D7" s="44">
+        <v>4</v>
+      </c>
+      <c r="E7" s="44">
+        <v>2</v>
+      </c>
+      <c r="F7" s="44">
+        <v>4</v>
+      </c>
+      <c r="G7" s="44">
+        <v>1</v>
+      </c>
+      <c r="H7" s="44">
+        <v>4</v>
+      </c>
+      <c r="I7" s="44">
+        <v>1</v>
+      </c>
+      <c r="J7" s="44">
+        <v>4</v>
+      </c>
+      <c r="K7" s="44">
+        <v>2</v>
+      </c>
+      <c r="L7" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="A8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1021</v>
+      </c>
+      <c r="C8" s="44">
+        <v>4</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="44">
+        <v>2</v>
+      </c>
+      <c r="F8" s="44">
+        <v>4</v>
+      </c>
+      <c r="G8" s="45">
+        <v>1</v>
+      </c>
+      <c r="H8" s="44">
+        <v>4</v>
+      </c>
+      <c r="I8" s="44">
+        <v>1</v>
+      </c>
+      <c r="J8" s="44">
+        <v>4</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="A9" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1014</v>
+      </c>
+      <c r="C9" s="44">
+        <v>4</v>
+      </c>
+      <c r="D9" s="44">
+        <v>4</v>
+      </c>
+      <c r="E9" s="44">
+        <v>2</v>
+      </c>
+      <c r="F9" s="44">
+        <v>4</v>
+      </c>
+      <c r="G9" s="44">
+        <v>1</v>
+      </c>
+      <c r="H9" s="44">
+        <v>4</v>
+      </c>
+      <c r="I9" s="44">
+        <v>1</v>
+      </c>
+      <c r="J9" s="44">
+        <v>4</v>
+      </c>
+      <c r="K9" s="44">
+        <v>3</v>
+      </c>
+      <c r="L9" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="44"/>
+      <c r="A10" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <v>2</v>
+      </c>
+      <c r="F10" s="44">
+        <v>4</v>
+      </c>
+      <c r="G10" s="45">
+        <v>1</v>
+      </c>
+      <c r="H10" s="44">
+        <v>4</v>
+      </c>
+      <c r="I10" s="44">
+        <v>1</v>
+      </c>
+      <c r="J10" s="44">
+        <v>4</v>
+      </c>
+      <c r="K10" s="44">
+        <v>2</v>
+      </c>
+      <c r="L10" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="44"/>
+      <c r="A11" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1032</v>
+      </c>
+      <c r="C11" s="44">
+        <v>4</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="44">
+        <v>2</v>
+      </c>
+      <c r="F11" s="44">
+        <v>4</v>
+      </c>
+      <c r="G11" s="44">
+        <v>1</v>
+      </c>
+      <c r="H11" s="44">
+        <v>4</v>
+      </c>
+      <c r="I11" s="44">
+        <v>1</v>
+      </c>
+      <c r="J11" s="44">
+        <v>4</v>
+      </c>
+      <c r="K11" s="44">
+        <v>2</v>
+      </c>
+      <c r="L11" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="A12" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1028</v>
+      </c>
+      <c r="C12" s="44">
+        <v>4</v>
+      </c>
+      <c r="D12" s="44">
+        <v>1</v>
+      </c>
+      <c r="E12" s="44">
+        <v>2</v>
+      </c>
+      <c r="F12" s="44">
+        <v>4</v>
+      </c>
+      <c r="G12" s="45">
+        <v>1</v>
+      </c>
+      <c r="H12" s="44">
+        <v>4</v>
+      </c>
+      <c r="I12" s="44">
+        <v>1</v>
+      </c>
+      <c r="J12" s="44">
+        <v>4</v>
+      </c>
+      <c r="K12" s="44">
+        <v>2</v>
+      </c>
+      <c r="L12" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="A13" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1007</v>
+      </c>
+      <c r="C13" s="44">
+        <v>3</v>
+      </c>
+      <c r="D13" s="44">
+        <v>1</v>
+      </c>
+      <c r="E13" s="44">
+        <v>2</v>
+      </c>
+      <c r="F13" s="44">
+        <v>4</v>
+      </c>
+      <c r="G13" s="44">
+        <v>1</v>
+      </c>
+      <c r="H13" s="44">
+        <v>4</v>
+      </c>
+      <c r="I13" s="44">
+        <v>1</v>
+      </c>
+      <c r="J13" s="44">
+        <v>4</v>
+      </c>
+      <c r="K13" s="44">
+        <v>2</v>
+      </c>
+      <c r="L13" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="44"/>
+      <c r="A14" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1036</v>
+      </c>
+      <c r="C14" s="44">
+        <v>4</v>
+      </c>
+      <c r="D14" s="44">
+        <v>1</v>
+      </c>
+      <c r="E14" s="44">
+        <v>3</v>
+      </c>
+      <c r="F14" s="44">
+        <v>4</v>
+      </c>
+      <c r="G14" s="45">
+        <v>1</v>
+      </c>
+      <c r="H14" s="44">
+        <v>3</v>
+      </c>
+      <c r="I14" s="44">
+        <v>1</v>
+      </c>
+      <c r="J14" s="44">
+        <v>4</v>
+      </c>
+      <c r="K14" s="44">
+        <v>2</v>
+      </c>
+      <c r="L14" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="A15" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="44">
+        <v>1009</v>
+      </c>
+      <c r="C15" s="44">
+        <v>4</v>
+      </c>
+      <c r="D15" s="44">
+        <v>1</v>
+      </c>
+      <c r="E15" s="44">
+        <v>2</v>
+      </c>
+      <c r="F15" s="44">
+        <v>4</v>
+      </c>
+      <c r="G15" s="44">
+        <v>1</v>
+      </c>
+      <c r="H15" s="44">
+        <v>4</v>
+      </c>
+      <c r="I15" s="44">
+        <v>1</v>
+      </c>
+      <c r="J15" s="44">
+        <v>4</v>
+      </c>
+      <c r="K15" s="44">
+        <v>2</v>
+      </c>
+      <c r="L15" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="44">
+        <v>1037</v>
+      </c>
+      <c r="C16" s="44">
+        <v>4</v>
+      </c>
+      <c r="D16" s="44">
+        <v>1</v>
+      </c>
+      <c r="E16" s="44">
+        <v>2</v>
+      </c>
+      <c r="F16" s="44">
+        <v>4</v>
+      </c>
+      <c r="G16" s="45">
+        <v>1</v>
+      </c>
+      <c r="H16" s="44">
+        <v>4</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="44">
+        <v>4</v>
+      </c>
+      <c r="K16" s="44">
+        <v>2</v>
+      </c>
+      <c r="L16" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="44"/>
+      <c r="A17" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="44">
+        <v>1015</v>
+      </c>
+      <c r="C17" s="44">
+        <v>4</v>
+      </c>
+      <c r="D17" s="44">
+        <v>1</v>
+      </c>
+      <c r="E17" s="44">
+        <v>2</v>
+      </c>
+      <c r="F17" s="44">
+        <v>4</v>
+      </c>
+      <c r="G17" s="44">
+        <v>1</v>
+      </c>
+      <c r="H17" s="44">
+        <v>4</v>
+      </c>
+      <c r="I17" s="44">
+        <v>1</v>
+      </c>
+      <c r="J17" s="44">
+        <v>4</v>
+      </c>
+      <c r="K17" s="44">
+        <v>2</v>
+      </c>
+      <c r="L17" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="A18" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="44">
+        <v>1039</v>
+      </c>
+      <c r="C18" s="44">
+        <v>4</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
+        <v>2</v>
+      </c>
+      <c r="F18" s="44">
+        <v>4</v>
+      </c>
+      <c r="G18" s="45">
+        <v>1</v>
+      </c>
+      <c r="H18" s="44">
+        <v>4</v>
+      </c>
+      <c r="I18" s="44">
+        <v>1</v>
+      </c>
+      <c r="J18" s="44">
+        <v>4</v>
+      </c>
+      <c r="K18" s="44">
+        <v>2</v>
+      </c>
+      <c r="L18" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
+      <c r="A19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="44">
+        <v>1023</v>
+      </c>
+      <c r="C19" s="44">
+        <v>3</v>
+      </c>
+      <c r="D19" s="44">
+        <v>1</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="44">
+        <v>4</v>
+      </c>
+      <c r="G19" s="44">
+        <v>1</v>
+      </c>
+      <c r="H19" s="44">
+        <v>4</v>
+      </c>
+      <c r="I19" s="44">
+        <v>1</v>
+      </c>
+      <c r="J19" s="44">
+        <v>4</v>
+      </c>
+      <c r="K19" s="44">
+        <v>2</v>
+      </c>
+      <c r="L19" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
+      <c r="A20" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="44">
+        <v>1029</v>
+      </c>
+      <c r="C20" s="44">
+        <v>4</v>
+      </c>
+      <c r="D20" s="44">
+        <v>1</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="44">
+        <v>4</v>
+      </c>
+      <c r="G20" s="45">
+        <v>1</v>
+      </c>
+      <c r="H20" s="44">
+        <v>4</v>
+      </c>
+      <c r="I20" s="44">
+        <v>1</v>
+      </c>
+      <c r="J20" s="44">
+        <v>3</v>
+      </c>
+      <c r="K20" s="44">
+        <v>2</v>
+      </c>
+      <c r="L20" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="A21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="44">
+        <v>1001</v>
+      </c>
+      <c r="C21" s="44">
+        <v>1</v>
+      </c>
+      <c r="D21" s="44">
+        <v>4</v>
+      </c>
+      <c r="E21" s="44">
+        <v>2</v>
+      </c>
+      <c r="F21" s="44">
+        <v>4</v>
+      </c>
+      <c r="G21" s="44">
+        <v>1</v>
+      </c>
+      <c r="H21" s="44">
+        <v>4</v>
+      </c>
+      <c r="I21" s="44">
+        <v>1</v>
+      </c>
+      <c r="J21" s="44">
+        <v>4</v>
+      </c>
       <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
+      <c r="L21" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
+      <c r="A22" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="44">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="44">
+        <v>4</v>
+      </c>
+      <c r="D22" s="44">
+        <v>1</v>
+      </c>
+      <c r="E22" s="44">
+        <v>2</v>
+      </c>
+      <c r="F22" s="44">
+        <v>4</v>
+      </c>
+      <c r="G22" s="45">
+        <v>1</v>
+      </c>
+      <c r="H22" s="44">
+        <v>4</v>
+      </c>
+      <c r="I22" s="44">
+        <v>1</v>
+      </c>
+      <c r="J22" s="44">
+        <v>4</v>
+      </c>
+      <c r="K22" s="44">
+        <v>2</v>
+      </c>
+      <c r="L22" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="A23" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="44">
+        <v>1012</v>
+      </c>
+      <c r="C23" s="44">
+        <v>4</v>
+      </c>
+      <c r="D23" s="44">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44">
+        <v>2</v>
+      </c>
+      <c r="F23" s="44">
+        <v>4</v>
+      </c>
+      <c r="G23" s="44">
+        <v>1</v>
+      </c>
+      <c r="H23" s="44">
+        <v>4</v>
+      </c>
+      <c r="I23" s="44">
+        <v>1</v>
+      </c>
+      <c r="J23" s="44">
+        <v>4</v>
+      </c>
+      <c r="K23" s="44">
+        <v>2</v>
+      </c>
+      <c r="L23" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="A24" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="44">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="44">
+        <v>4</v>
+      </c>
+      <c r="D24" s="44">
+        <v>1</v>
+      </c>
+      <c r="E24" s="44">
+        <v>2</v>
+      </c>
+      <c r="F24" s="44">
+        <v>4</v>
+      </c>
+      <c r="G24" s="45">
+        <v>1</v>
+      </c>
+      <c r="H24" s="44">
+        <v>4</v>
+      </c>
+      <c r="I24" s="44">
+        <v>1</v>
+      </c>
+      <c r="J24" s="44">
+        <v>4</v>
+      </c>
+      <c r="K24" s="44">
+        <v>2</v>
+      </c>
+      <c r="L24" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="A25" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="44">
+        <v>1035</v>
+      </c>
+      <c r="C25" s="44">
+        <v>4</v>
+      </c>
+      <c r="D25" s="44">
+        <v>4</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="44">
+        <v>4</v>
+      </c>
+      <c r="G25" s="44">
+        <v>1</v>
+      </c>
+      <c r="H25" s="44">
+        <v>4</v>
+      </c>
+      <c r="I25" s="44">
+        <v>1</v>
+      </c>
+      <c r="J25" s="44">
+        <v>1</v>
+      </c>
+      <c r="K25" s="44">
+        <v>2</v>
+      </c>
+      <c r="L25" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
+      <c r="A26" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="44">
+        <v>1031</v>
+      </c>
+      <c r="C26" s="44">
+        <v>4</v>
+      </c>
+      <c r="D26" s="44">
+        <v>1</v>
+      </c>
+      <c r="E26" s="44">
+        <v>2</v>
+      </c>
+      <c r="F26" s="44">
+        <v>4</v>
+      </c>
+      <c r="G26" s="45">
+        <v>1</v>
+      </c>
+      <c r="H26" s="44">
+        <v>4</v>
+      </c>
+      <c r="I26" s="44">
+        <v>1</v>
+      </c>
+      <c r="J26" s="44">
+        <v>3</v>
+      </c>
+      <c r="K26" s="44">
+        <v>2</v>
+      </c>
+      <c r="L26" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
+      <c r="A27" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="44">
+        <v>1002</v>
+      </c>
+      <c r="C27" s="44">
+        <v>4</v>
+      </c>
+      <c r="D27" s="44">
+        <v>1</v>
+      </c>
+      <c r="E27" s="44">
+        <v>2</v>
+      </c>
+      <c r="F27" s="44">
+        <v>4</v>
+      </c>
+      <c r="G27" s="44">
+        <v>1</v>
+      </c>
+      <c r="H27" s="44">
+        <v>4</v>
+      </c>
+      <c r="I27" s="44">
+        <v>1</v>
+      </c>
+      <c r="J27" s="44">
+        <v>4</v>
+      </c>
+      <c r="K27" s="44">
+        <v>3</v>
+      </c>
+      <c r="L27" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="A28" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="44">
+        <v>1025</v>
+      </c>
+      <c r="C28" s="44">
+        <v>4</v>
+      </c>
+      <c r="D28" s="44">
+        <v>1</v>
+      </c>
+      <c r="E28" s="44">
+        <v>3</v>
+      </c>
+      <c r="F28" s="44">
+        <v>4</v>
+      </c>
+      <c r="G28" s="45">
+        <v>1</v>
+      </c>
+      <c r="H28" s="44">
+        <v>4</v>
+      </c>
+      <c r="I28" s="44">
+        <v>1</v>
+      </c>
+      <c r="J28" s="44">
+        <v>4</v>
+      </c>
+      <c r="K28" s="44">
+        <v>2</v>
+      </c>
+      <c r="L28" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="A29" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="44">
+        <v>1033</v>
+      </c>
+      <c r="C29" s="44">
+        <v>4</v>
+      </c>
+      <c r="D29" s="44">
+        <v>4</v>
+      </c>
+      <c r="E29" s="44">
+        <v>2</v>
+      </c>
+      <c r="F29" s="44">
+        <v>4</v>
+      </c>
+      <c r="G29" s="44">
+        <v>1</v>
+      </c>
+      <c r="H29" s="44">
+        <v>4</v>
+      </c>
+      <c r="I29" s="44">
+        <v>1</v>
+      </c>
+      <c r="J29" s="44">
+        <v>4</v>
+      </c>
+      <c r="K29" s="44">
+        <v>2</v>
+      </c>
+      <c r="L29" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="A30" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="44">
+        <v>1010</v>
+      </c>
+      <c r="C30" s="44">
+        <v>1</v>
+      </c>
+      <c r="D30" s="44">
+        <v>1</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="44">
+        <v>4</v>
+      </c>
+      <c r="G30" s="45">
+        <v>1</v>
+      </c>
+      <c r="H30" s="44">
+        <v>4</v>
+      </c>
+      <c r="I30" s="44">
+        <v>1</v>
+      </c>
+      <c r="J30" s="44">
+        <v>4</v>
+      </c>
+      <c r="K30" s="45"/>
+      <c r="L30" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="44"/>
+      <c r="A31" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="44">
+        <v>1004</v>
+      </c>
+      <c r="C31" s="44">
+        <v>4</v>
+      </c>
+      <c r="D31" s="44">
+        <v>4</v>
+      </c>
+      <c r="E31" s="44">
+        <v>4</v>
+      </c>
+      <c r="F31" s="44">
+        <v>4</v>
+      </c>
+      <c r="G31" s="44">
+        <v>1</v>
+      </c>
+      <c r="H31" s="44">
+        <v>4</v>
+      </c>
+      <c r="I31" s="44">
+        <v>1</v>
+      </c>
+      <c r="J31" s="44">
+        <v>4</v>
+      </c>
+      <c r="K31" s="44">
+        <v>2</v>
+      </c>
+      <c r="L31" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="44"/>
+      <c r="A32" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="44">
+        <v>1016</v>
+      </c>
+      <c r="C32" s="44">
+        <v>4</v>
+      </c>
+      <c r="D32" s="44">
+        <v>1</v>
+      </c>
+      <c r="E32" s="44">
+        <v>2</v>
+      </c>
+      <c r="F32" s="44">
+        <v>4</v>
+      </c>
+      <c r="G32" s="45">
+        <v>1</v>
+      </c>
+      <c r="H32" s="44">
+        <v>4</v>
+      </c>
+      <c r="I32" s="44">
+        <v>1</v>
+      </c>
+      <c r="J32" s="44">
+        <v>4</v>
+      </c>
+      <c r="K32" s="44">
+        <v>2</v>
+      </c>
+      <c r="L32" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
+      <c r="A33" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="44">
+        <v>1006</v>
+      </c>
+      <c r="C33" s="44">
+        <v>4</v>
+      </c>
+      <c r="D33" s="44">
+        <v>1</v>
+      </c>
+      <c r="E33" s="44">
+        <v>2</v>
+      </c>
+      <c r="F33" s="44">
+        <v>4</v>
+      </c>
+      <c r="G33" s="44">
+        <v>1</v>
+      </c>
+      <c r="H33" s="44">
+        <v>4</v>
+      </c>
+      <c r="I33" s="44">
+        <v>1</v>
+      </c>
+      <c r="J33" s="44">
+        <v>4</v>
+      </c>
+      <c r="K33" s="44">
+        <v>2</v>
+      </c>
+      <c r="L33" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45"/>
+      <c r="A34" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="44">
+        <v>1003</v>
+      </c>
+      <c r="C34" s="44">
+        <v>1</v>
+      </c>
+      <c r="D34" s="44">
+        <v>1</v>
+      </c>
+      <c r="E34" s="44">
+        <v>2</v>
+      </c>
+      <c r="F34" s="44">
+        <v>4</v>
+      </c>
+      <c r="G34" s="45">
+        <v>1</v>
+      </c>
+      <c r="H34" s="44">
+        <v>4</v>
+      </c>
+      <c r="I34" s="44">
+        <v>1</v>
+      </c>
+      <c r="J34" s="44">
+        <v>4</v>
+      </c>
+      <c r="K34" s="44">
+        <v>2</v>
+      </c>
+      <c r="L34" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="44"/>
@@ -2101,7 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -2255,341 +3056,341 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="11" t="str">
         <f>گوگل!A2</f>
-        <v>0</v>
+        <v>دانیال رجبی</v>
       </c>
       <c r="B2" s="11">
         <f>گوگل!B2</f>
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="C2" s="12">
         <f>IF(گوگل!C2=کلید!B$2,3,IF(گوگل!C2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2" s="12">
         <f>IF(گوگل!D2=کلید!C$2,3,IF(گوگل!D2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="12">
         <f>IF(گوگل!E2=کلید!D$2,3,IF(گوگل!E2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="12">
         <f>IF(گوگل!F2=کلید!E$2,3,IF(گوگل!F2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="12">
         <f>IF(گوگل!G2=کلید!F$2,3,IF(گوگل!G2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="12">
         <f>IF(گوگل!H2=کلید!G$2,3,IF(گوگل!H2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="12">
         <f>IF(گوگل!I2=کلید!H$2,3,IF(گوگل!I2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="12">
         <f>IF(گوگل!J2=کلید!I$2,3,IF(گوگل!J2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="12">
         <f>IF(گوگل!K2=کلید!J$2,3,IF(گوگل!K2="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="12">
         <f>IF(گوگل!L2=کلید!K$2,3,IF(گوگل!L2="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M2" s="13">
         <f t="shared" ref="M2:M44" si="0">(SUM(C2:L2)/(30))*100</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="11" t="str">
         <f>گوگل!A3</f>
-        <v>0</v>
+        <v>علیرضا باقری هوجقان</v>
       </c>
       <c r="B3" s="11">
         <f>گوگل!B3</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="C3" s="12">
         <f>IF(گوگل!C3=کلید!B$2,3,IF(گوگل!C3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="12">
         <f>IF(گوگل!D3=کلید!C$2,3,IF(گوگل!D3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="12">
         <f>IF(گوگل!E3=کلید!D$2,3,IF(گوگل!E3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="12">
         <f>IF(گوگل!F3=کلید!E$2,3,IF(گوگل!F3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="12">
         <f>IF(گوگل!G3=کلید!F$2,3,IF(گوگل!G3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="12">
         <f>IF(گوگل!H3=کلید!G$2,3,IF(گوگل!H3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="12">
         <f>IF(گوگل!I3=کلید!H$2,3,IF(گوگل!I3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="12">
         <f>IF(گوگل!J3=کلید!I$2,3,IF(گوگل!J3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" s="12">
         <f>IF(گوگل!K3=کلید!J$2,3,IF(گوگل!K3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="12">
         <f>IF(گوگل!L3=کلید!K$2,3,IF(گوگل!L3="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="11" t="str">
         <f>گوگل!A4</f>
-        <v>0</v>
+        <v>محمد عسگری</v>
       </c>
       <c r="B4" s="11">
         <f>گوگل!B4</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="C4" s="12">
         <f>IF(گوگل!C4=کلید!B$2,3,IF(گوگل!C4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="12">
         <f>IF(گوگل!D4=کلید!C$2,3,IF(گوگل!D4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="12">
         <f>IF(گوگل!E4=کلید!D$2,3,IF(گوگل!E4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="12">
         <f>IF(گوگل!F4=کلید!E$2,3,IF(گوگل!F4="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="12">
         <f>IF(گوگل!G4=کلید!F$2,3,IF(گوگل!G4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="12">
         <f>IF(گوگل!H4=کلید!G$2,3,IF(گوگل!H4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="12">
         <f>IF(گوگل!I4=کلید!H$2,3,IF(گوگل!I4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="12">
         <f>IF(گوگل!J4=کلید!I$2,3,IF(گوگل!J4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="12">
         <f>IF(گوگل!K4=کلید!J$2,3,IF(گوگل!K4="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="12">
         <f>IF(گوگل!L4=کلید!K$2,3,IF(گوگل!L4="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="11" t="str">
         <f>گوگل!A5</f>
-        <v>0</v>
+        <v>هومن حدیدی</v>
       </c>
       <c r="B5" s="11">
         <f>گوگل!B5</f>
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="C5" s="12">
         <f>IF(گوگل!C5=کلید!B$2,3,IF(گوگل!C5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="12">
         <f>IF(گوگل!D5=کلید!C$2,3,IF(گوگل!D5="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="12">
         <f>IF(گوگل!E5=کلید!D$2,3,IF(گوگل!E5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="12">
         <f>IF(گوگل!F5=کلید!E$2,3,IF(گوگل!F5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="12">
         <f>IF(گوگل!G5=کلید!F$2,3,IF(گوگل!G5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="12">
         <f>IF(گوگل!H5=کلید!G$2,3,IF(گوگل!H5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="12">
         <f>IF(گوگل!I5=کلید!H$2,3,IF(گوگل!I5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="12">
         <f>IF(گوگل!J5=کلید!I$2,3,IF(گوگل!J5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="12">
         <f>IF(گوگل!K5=کلید!J$2,3,IF(گوگل!K5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="12">
         <f>IF(گوگل!L5=کلید!K$2,3,IF(گوگل!L5="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="11" t="str">
         <f>گوگل!A6</f>
-        <v>0</v>
+        <v>علی اصغر علیشاه نژاد</v>
       </c>
       <c r="B6" s="11">
         <f>گوگل!B6</f>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="C6" s="12">
         <f>IF(گوگل!C6=کلید!B$2,3,IF(گوگل!C6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="12">
         <f>IF(گوگل!D6=کلید!C$2,3,IF(گوگل!D6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="12">
         <f>IF(گوگل!E6=کلید!D$2,3,IF(گوگل!E6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="12">
         <f>IF(گوگل!F6=کلید!E$2,3,IF(گوگل!F6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="12">
         <f>IF(گوگل!G6=کلید!F$2,3,IF(گوگل!G6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="12">
         <f>IF(گوگل!H6=کلید!G$2,3,IF(گوگل!H6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="12">
         <f>IF(گوگل!I6=کلید!H$2,3,IF(گوگل!I6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="12">
         <f>IF(گوگل!J6=کلید!I$2,3,IF(گوگل!J6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="12">
         <f>IF(گوگل!K6=کلید!J$2,3,IF(گوگل!K6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="12">
         <f>IF(گوگل!L6=کلید!K$2,3,IF(گوگل!L6="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="11" t="str">
         <f>گوگل!A7</f>
-        <v>0</v>
+        <v>دانیل میری</v>
       </c>
       <c r="B7" s="11">
         <f>گوگل!B7</f>
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="C7" s="12">
         <f>IF(گوگل!C7=کلید!B$2,3,IF(گوگل!C7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="12">
         <f>IF(گوگل!D7=کلید!C$2,3,IF(گوگل!D7="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="12">
         <f>IF(گوگل!E7=کلید!D$2,3,IF(گوگل!E7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="12">
         <f>IF(گوگل!F7=کلید!E$2,3,IF(گوگل!F7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="12">
         <f>IF(گوگل!G7=کلید!F$2,3,IF(گوگل!G7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="12">
         <f>IF(گوگل!H7=کلید!G$2,3,IF(گوگل!H7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="12">
         <f>IF(گوگل!I7=کلید!H$2,3,IF(گوگل!I7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="12">
         <f>IF(گوگل!J7=کلید!I$2,3,IF(گوگل!J7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="12">
         <f>IF(گوگل!K7=کلید!J$2,3,IF(گوگل!K7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="12">
         <f>IF(گوگل!L7=کلید!K$2,3,IF(گوگل!L7="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="11" t="str">
         <f>گوگل!A8</f>
-        <v>0</v>
+        <v>امیررضا صدیقی</v>
       </c>
       <c r="B8" s="11">
         <f>گوگل!B8</f>
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="C8" s="12">
         <f>IF(گوگل!C8=کلید!B$2,3,IF(گوگل!C8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="12">
         <f>IF(گوگل!D8=کلید!C$2,3,IF(گوگل!D8="",0,-1))</f>
@@ -2597,27 +3398,27 @@
       </c>
       <c r="E8" s="12">
         <f>IF(گوگل!E8=کلید!D$2,3,IF(گوگل!E8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="12">
         <f>IF(گوگل!F8=کلید!E$2,3,IF(گوگل!F8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="12">
         <f>IF(گوگل!G8=کلید!F$2,3,IF(گوگل!G8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="12">
         <f>IF(گوگل!H8=کلید!G$2,3,IF(گوگل!H8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="12">
         <f>IF(گوگل!I8=کلید!H$2,3,IF(گوگل!I8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="12">
         <f>IF(گوگل!J8=کلید!I$2,3,IF(گوگل!J8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="12">
         <f>IF(گوگل!K8=کلید!J$2,3,IF(گوگل!K8="",0,-1))</f>
@@ -2625,423 +3426,423 @@
       </c>
       <c r="L8" s="12">
         <f>IF(گوگل!L8=کلید!K$2,3,IF(گوگل!L8="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="11" t="str">
         <f>گوگل!A9</f>
-        <v>0</v>
+        <v>محمدامین حسین نژاد</v>
       </c>
       <c r="B9" s="11">
         <f>گوگل!B9</f>
-        <v>0</v>
+        <v>1014</v>
       </c>
       <c r="C9" s="12">
         <f>IF(گوگل!C9=کلید!B$2,3,IF(گوگل!C9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="12">
         <f>IF(گوگل!D9=کلید!C$2,3,IF(گوگل!D9="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" s="12">
         <f>IF(گوگل!E9=کلید!D$2,3,IF(گوگل!E9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="12">
         <f>IF(گوگل!F9=کلید!E$2,3,IF(گوگل!F9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="12">
         <f>IF(گوگل!G9=کلید!F$2,3,IF(گوگل!G9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="12">
         <f>IF(گوگل!H9=کلید!G$2,3,IF(گوگل!H9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="12">
         <f>IF(گوگل!I9=کلید!H$2,3,IF(گوگل!I9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="12">
         <f>IF(گوگل!J9=کلید!I$2,3,IF(گوگل!J9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="12">
         <f>IF(گوگل!K9=کلید!J$2,3,IF(گوگل!K9="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L9" s="12">
         <f>IF(گوگل!L9=کلید!K$2,3,IF(گوگل!L9="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="11" t="str">
         <f>گوگل!A10</f>
-        <v>0</v>
+        <v>محمدجواد امیدی شورجه</v>
       </c>
       <c r="B10" s="11">
         <f>گوگل!B10</f>
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="C10" s="12">
         <f>IF(گوگل!C10=کلید!B$2,3,IF(گوگل!C10="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="12">
         <f>IF(گوگل!D10=کلید!C$2,3,IF(گوگل!D10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="12">
         <f>IF(گوگل!E10=کلید!D$2,3,IF(گوگل!E10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="12">
         <f>IF(گوگل!F10=کلید!E$2,3,IF(گوگل!F10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="12">
         <f>IF(گوگل!G10=کلید!F$2,3,IF(گوگل!G10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="12">
         <f>IF(گوگل!H10=کلید!G$2,3,IF(گوگل!H10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="12">
         <f>IF(گوگل!I10=کلید!H$2,3,IF(گوگل!I10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="12">
         <f>IF(گوگل!J10=کلید!I$2,3,IF(گوگل!J10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="12">
         <f>IF(گوگل!K10=کلید!J$2,3,IF(گوگل!K10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="12">
         <f>IF(گوگل!L10=کلید!K$2,3,IF(گوگل!L10="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="11" t="str">
         <f>گوگل!A11</f>
-        <v>0</v>
+        <v>محمدامین لطفی حاجی آقا</v>
       </c>
       <c r="B11" s="11">
         <f>گوگل!B11</f>
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="C11" s="12">
         <f>IF(گوگل!C11=کلید!B$2,3,IF(گوگل!C11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="12">
         <f>IF(گوگل!D11=کلید!C$2,3,IF(گوگل!D11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="12">
         <f>IF(گوگل!E11=کلید!D$2,3,IF(گوگل!E11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="12">
         <f>IF(گوگل!F11=کلید!E$2,3,IF(گوگل!F11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="12">
         <f>IF(گوگل!G11=کلید!F$2,3,IF(گوگل!G11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="12">
         <f>IF(گوگل!H11=کلید!G$2,3,IF(گوگل!H11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="12">
         <f>IF(گوگل!I11=کلید!H$2,3,IF(گوگل!I11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="12">
         <f>IF(گوگل!J11=کلید!I$2,3,IF(گوگل!J11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="12">
         <f>IF(گوگل!K11=کلید!J$2,3,IF(گوگل!K11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="12">
         <f>IF(گوگل!L11=کلید!K$2,3,IF(گوگل!L11="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="11" t="str">
         <f>گوگل!A12</f>
-        <v>0</v>
+        <v>امیرحسین قاسمی</v>
       </c>
       <c r="B12" s="11">
         <f>گوگل!B12</f>
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="C12" s="12">
         <f>IF(گوگل!C12=کلید!B$2,3,IF(گوگل!C12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="12">
         <f>IF(گوگل!D12=کلید!C$2,3,IF(گوگل!D12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="12">
         <f>IF(گوگل!E12=کلید!D$2,3,IF(گوگل!E12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="12">
         <f>IF(گوگل!F12=کلید!E$2,3,IF(گوگل!F12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="12">
         <f>IF(گوگل!G12=کلید!F$2,3,IF(گوگل!G12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="12">
         <f>IF(گوگل!H12=کلید!G$2,3,IF(گوگل!H12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="12">
         <f>IF(گوگل!I12=کلید!H$2,3,IF(گوگل!I12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="12">
         <f>IF(گوگل!J12=کلید!I$2,3,IF(گوگل!J12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" s="12">
         <f>IF(گوگل!K12=کلید!J$2,3,IF(گوگل!K12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="12">
         <f>IF(گوگل!L12=کلید!K$2,3,IF(گوگل!L12="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="11" t="str">
         <f>گوگل!A13</f>
-        <v>0</v>
+        <v>امین بابایی خمیران</v>
       </c>
       <c r="B13" s="11">
         <f>گوگل!B13</f>
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="C13" s="12">
         <f>IF(گوگل!C13=کلید!B$2,3,IF(گوگل!C13="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13" s="12">
         <f>IF(گوگل!D13=کلید!C$2,3,IF(گوگل!D13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="12">
         <f>IF(گوگل!E13=کلید!D$2,3,IF(گوگل!E13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="12">
         <f>IF(گوگل!F13=کلید!E$2,3,IF(گوگل!F13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="12">
         <f>IF(گوگل!G13=کلید!F$2,3,IF(گوگل!G13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="12">
         <f>IF(گوگل!H13=کلید!G$2,3,IF(گوگل!H13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="12">
         <f>IF(گوگل!I13=کلید!H$2,3,IF(گوگل!I13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="12">
         <f>IF(گوگل!J13=کلید!I$2,3,IF(گوگل!J13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="12">
         <f>IF(گوگل!K13=کلید!J$2,3,IF(گوگل!K13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="12">
         <f>IF(گوگل!L13=کلید!K$2,3,IF(گوگل!L13="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="11" t="str">
         <f>گوگل!A14</f>
-        <v>0</v>
+        <v>علی محمدی</v>
       </c>
       <c r="B14" s="11">
         <f>گوگل!B14</f>
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="C14" s="12">
         <f>IF(گوگل!C14=کلید!B$2,3,IF(گوگل!C14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="12">
         <f>IF(گوگل!D14=کلید!C$2,3,IF(گوگل!D14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="12">
         <f>IF(گوگل!E14=کلید!D$2,3,IF(گوگل!E14="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="12">
         <f>IF(گوگل!F14=کلید!E$2,3,IF(گوگل!F14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="12">
         <f>IF(گوگل!G14=کلید!F$2,3,IF(گوگل!G14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="12">
         <f>IF(گوگل!H14=کلید!G$2,3,IF(گوگل!H14="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="12">
         <f>IF(گوگل!I14=کلید!H$2,3,IF(گوگل!I14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="12">
         <f>IF(گوگل!J14=کلید!I$2,3,IF(گوگل!J14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="12">
         <f>IF(گوگل!K14=کلید!J$2,3,IF(گوگل!K14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="12">
         <f>IF(گوگل!L14=کلید!K$2,3,IF(گوگل!L14="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="11" t="str">
         <f>گوگل!A15</f>
-        <v>0</v>
+        <v>علی بشیرزاده</v>
       </c>
       <c r="B15" s="11">
         <f>گوگل!B15</f>
-        <v>0</v>
+        <v>1009</v>
       </c>
       <c r="C15" s="12">
         <f>IF(گوگل!C15=کلید!B$2,3,IF(گوگل!C15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="12">
         <f>IF(گوگل!D15=کلید!C$2,3,IF(گوگل!D15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="12">
         <f>IF(گوگل!E15=کلید!D$2,3,IF(گوگل!E15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="12">
         <f>IF(گوگل!F15=کلید!E$2,3,IF(گوگل!F15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="12">
         <f>IF(گوگل!G15=کلید!F$2,3,IF(گوگل!G15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="12">
         <f>IF(گوگل!H15=کلید!G$2,3,IF(گوگل!H15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="12">
         <f>IF(گوگل!I15=کلید!H$2,3,IF(گوگل!I15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="12">
         <f>IF(گوگل!J15=کلید!I$2,3,IF(گوگل!J15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="12">
         <f>IF(گوگل!K15=کلید!J$2,3,IF(گوگل!K15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="12">
         <f>IF(گوگل!L15=کلید!K$2,3,IF(گوگل!L15="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="11" t="str">
         <f>گوگل!A16</f>
-        <v>0</v>
+        <v>محسن موسیوندارزانفودی</v>
       </c>
       <c r="B16" s="11">
         <f>گوگل!B16</f>
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="C16" s="12">
         <f>IF(گوگل!C16=کلید!B$2,3,IF(گوگل!C16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="12">
         <f>IF(گوگل!D16=کلید!C$2,3,IF(گوگل!D16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="12">
         <f>IF(گوگل!E16=کلید!D$2,3,IF(گوگل!E16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="12">
         <f>IF(گوگل!F16=کلید!E$2,3,IF(گوگل!F16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="12">
         <f>IF(گوگل!G16=کلید!F$2,3,IF(گوگل!G16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="12">
         <f>IF(گوگل!H16=کلید!G$2,3,IF(گوگل!H16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="12">
         <f>IF(گوگل!I16=کلید!H$2,3,IF(گوگل!I16="",0,-1))</f>
@@ -3049,145 +3850,145 @@
       </c>
       <c r="J16" s="12">
         <f>IF(گوگل!J16=کلید!I$2,3,IF(گوگل!J16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="12">
         <f>IF(گوگل!K16=کلید!J$2,3,IF(گوگل!K16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="12">
         <f>IF(گوگل!L16=کلید!K$2,3,IF(گوگل!L16="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="11" t="str">
         <f>گوگل!A17</f>
-        <v>0</v>
+        <v>سید مهدی درخشان</v>
       </c>
       <c r="B17" s="11">
         <f>گوگل!B17</f>
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="C17" s="12">
         <f>IF(گوگل!C17=کلید!B$2,3,IF(گوگل!C17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="12">
         <f>IF(گوگل!D17=کلید!C$2,3,IF(گوگل!D17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="12">
         <f>IF(گوگل!E17=کلید!D$2,3,IF(گوگل!E17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="12">
         <f>IF(گوگل!F17=کلید!E$2,3,IF(گوگل!F17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="12">
         <f>IF(گوگل!G17=کلید!F$2,3,IF(گوگل!G17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="12">
         <f>IF(گوگل!H17=کلید!G$2,3,IF(گوگل!H17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="12">
         <f>IF(گوگل!I17=کلید!H$2,3,IF(گوگل!I17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="12">
         <f>IF(گوگل!J17=کلید!I$2,3,IF(گوگل!J17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="12">
         <f>IF(گوگل!K17=کلید!J$2,3,IF(گوگل!K17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="12">
         <f>IF(گوگل!L17=کلید!K$2,3,IF(گوگل!L17="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="11" t="str">
         <f>گوگل!A18</f>
-        <v>0</v>
+        <v>نیما نجفی</v>
       </c>
       <c r="B18" s="11">
         <f>گوگل!B18</f>
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="C18" s="12">
         <f>IF(گوگل!C18=کلید!B$2,3,IF(گوگل!C18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="12">
         <f>IF(گوگل!D18=کلید!C$2,3,IF(گوگل!D18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="12">
         <f>IF(گوگل!E18=کلید!D$2,3,IF(گوگل!E18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="12">
         <f>IF(گوگل!F18=کلید!E$2,3,IF(گوگل!F18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="12">
         <f>IF(گوگل!G18=کلید!F$2,3,IF(گوگل!G18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="12">
         <f>IF(گوگل!H18=کلید!G$2,3,IF(گوگل!H18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="12">
         <f>IF(گوگل!I18=کلید!H$2,3,IF(گوگل!I18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="12">
         <f>IF(گوگل!J18=کلید!I$2,3,IF(گوگل!J18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="12">
         <f>IF(گوگل!K18=کلید!J$2,3,IF(گوگل!K18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="12">
         <f>IF(گوگل!L18=کلید!K$2,3,IF(گوگل!L18="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="11" t="str">
         <f>گوگل!A19</f>
-        <v>0</v>
+        <v>سینا عبدپور</v>
       </c>
       <c r="B19" s="11">
         <f>گوگل!B19</f>
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="C19" s="12">
         <f>IF(گوگل!C19=کلید!B$2,3,IF(گوگل!C19="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D19" s="12">
         <f>IF(گوگل!D19=کلید!C$2,3,IF(گوگل!D19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="12">
         <f>IF(گوگل!E19=کلید!D$2,3,IF(گوگل!E19="",0,-1))</f>
@@ -3195,53 +3996,53 @@
       </c>
       <c r="F19" s="12">
         <f>IF(گوگل!F19=کلید!E$2,3,IF(گوگل!F19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="12">
         <f>IF(گوگل!G19=کلید!F$2,3,IF(گوگل!G19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="12">
         <f>IF(گوگل!H19=کلید!G$2,3,IF(گوگل!H19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="12">
         <f>IF(گوگل!I19=کلید!H$2,3,IF(گوگل!I19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="12">
         <f>IF(گوگل!J19=کلید!I$2,3,IF(گوگل!J19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="12">
         <f>IF(گوگل!K19=کلید!J$2,3,IF(گوگل!K19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="12">
         <f>IF(گوگل!L19=کلید!K$2,3,IF(گوگل!L19="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="11" t="str">
         <f>گوگل!A20</f>
-        <v>0</v>
+        <v>امیرمهدی قاسمی</v>
       </c>
       <c r="B20" s="11">
         <f>گوگل!B20</f>
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="C20" s="12">
         <f>IF(گوگل!C20=کلید!B$2,3,IF(گوگل!C20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="12">
         <f>IF(گوگل!D20=کلید!C$2,3,IF(گوگل!D20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="12">
         <f>IF(گوگل!E20=کلید!D$2,3,IF(گوگل!E20="",0,-1))</f>
@@ -3249,77 +4050,77 @@
       </c>
       <c r="F20" s="12">
         <f>IF(گوگل!F20=کلید!E$2,3,IF(گوگل!F20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="12">
         <f>IF(گوگل!G20=کلید!F$2,3,IF(گوگل!G20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="12">
         <f>IF(گوگل!H20=کلید!G$2,3,IF(گوگل!H20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="12">
         <f>IF(گوگل!I20=کلید!H$2,3,IF(گوگل!I20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="12">
         <f>IF(گوگل!J20=کلید!I$2,3,IF(گوگل!J20="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="12">
         <f>IF(گوگل!K20=کلید!J$2,3,IF(گوگل!K20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="12">
         <f>IF(گوگل!L20=کلید!K$2,3,IF(گوگل!L20="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="11" t="str">
         <f>گوگل!A21</f>
-        <v>0</v>
+        <v>امیرحسین ابوئی</v>
       </c>
       <c r="B21" s="11">
         <f>گوگل!B21</f>
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C21" s="12">
         <f>IF(گوگل!C21=کلید!B$2,3,IF(گوگل!C21="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="12">
         <f>IF(گوگل!D21=کلید!C$2,3,IF(گوگل!D21="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E21" s="12">
         <f>IF(گوگل!E21=کلید!D$2,3,IF(گوگل!E21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="12">
         <f>IF(گوگل!F21=کلید!E$2,3,IF(گوگل!F21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="12">
         <f>IF(گوگل!G21=کلید!F$2,3,IF(گوگل!G21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="12">
         <f>IF(گوگل!H21=کلید!G$2,3,IF(گوگل!H21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="12">
         <f>IF(گوگل!I21=کلید!H$2,3,IF(گوگل!I21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="12">
         <f>IF(گوگل!J21=کلید!I$2,3,IF(گوگل!J21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="12">
         <f>IF(گوگل!K21=کلید!J$2,3,IF(گوگل!K21="",0,-1))</f>
@@ -3327,191 +4128,191 @@
       </c>
       <c r="L21" s="12">
         <f>IF(گوگل!L21=کلید!K$2,3,IF(گوگل!L21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="11" t="str">
         <f>گوگل!A22</f>
-        <v>0</v>
+        <v>علی شعبانی</v>
       </c>
       <c r="B22" s="11">
         <f>گوگل!B22</f>
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="C22" s="12">
         <f>IF(گوگل!C22=کلید!B$2,3,IF(گوگل!C22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="12">
         <f>IF(گوگل!D22=کلید!C$2,3,IF(گوگل!D22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="12">
         <f>IF(گوگل!E22=کلید!D$2,3,IF(گوگل!E22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="12">
         <f>IF(گوگل!F22=کلید!E$2,3,IF(گوگل!F22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="12">
         <f>IF(گوگل!G22=کلید!F$2,3,IF(گوگل!G22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="12">
         <f>IF(گوگل!H22=کلید!G$2,3,IF(گوگل!H22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="12">
         <f>IF(گوگل!I22=کلید!H$2,3,IF(گوگل!I22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="12">
         <f>IF(گوگل!J22=کلید!I$2,3,IF(گوگل!J22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="12">
         <f>IF(گوگل!K22=کلید!J$2,3,IF(گوگل!K22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="12">
         <f>IF(گوگل!L22=کلید!K$2,3,IF(گوگل!L22="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="11" t="str">
         <f>گوگل!A23</f>
-        <v>0</v>
+        <v>مهدی حسن وند</v>
       </c>
       <c r="B23" s="11">
         <f>گوگل!B23</f>
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="C23" s="12">
         <f>IF(گوگل!C23=کلید!B$2,3,IF(گوگل!C23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="12">
         <f>IF(گوگل!D23=کلید!C$2,3,IF(گوگل!D23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="12">
         <f>IF(گوگل!E23=کلید!D$2,3,IF(گوگل!E23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="12">
         <f>IF(گوگل!F23=کلید!E$2,3,IF(گوگل!F23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="12">
         <f>IF(گوگل!G23=کلید!F$2,3,IF(گوگل!G23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="12">
         <f>IF(گوگل!H23=کلید!G$2,3,IF(گوگل!H23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="12">
         <f>IF(گوگل!I23=کلید!H$2,3,IF(گوگل!I23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="12">
         <f>IF(گوگل!J23=کلید!I$2,3,IF(گوگل!J23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="12">
         <f>IF(گوگل!K23=کلید!J$2,3,IF(گوگل!K23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="12">
         <f>IF(گوگل!L23=کلید!K$2,3,IF(گوگل!L23="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="11" t="str">
         <f>گوگل!A24</f>
-        <v>0</v>
+        <v>محمد صادقی</v>
       </c>
       <c r="B24" s="11">
         <f>گوگل!B24</f>
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="C24" s="12">
         <f>IF(گوگل!C24=کلید!B$2,3,IF(گوگل!C24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="12">
         <f>IF(گوگل!D24=کلید!C$2,3,IF(گوگل!D24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="12">
         <f>IF(گوگل!E24=کلید!D$2,3,IF(گوگل!E24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="12">
         <f>IF(گوگل!F24=کلید!E$2,3,IF(گوگل!F24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="12">
         <f>IF(گوگل!G24=کلید!F$2,3,IF(گوگل!G24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" s="12">
         <f>IF(گوگل!H24=کلید!G$2,3,IF(گوگل!H24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="12">
         <f>IF(گوگل!I24=کلید!H$2,3,IF(گوگل!I24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="12">
         <f>IF(گوگل!J24=کلید!I$2,3,IF(گوگل!J24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" s="12">
         <f>IF(گوگل!K24=کلید!J$2,3,IF(گوگل!K24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="12">
         <f>IF(گوگل!L24=کلید!K$2,3,IF(گوگل!L24="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="11" t="str">
         <f>گوگل!A25</f>
-        <v>0</v>
+        <v>حسین محسن وند بناب</v>
       </c>
       <c r="B25" s="11">
         <f>گوگل!B25</f>
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="C25" s="12">
         <f>IF(گوگل!C25=کلید!B$2,3,IF(گوگل!C25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="12">
         <f>IF(گوگل!D25=کلید!C$2,3,IF(گوگل!D25="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="12">
         <f>IF(گوگل!E25=کلید!D$2,3,IF(گوگل!E25="",0,-1))</f>
@@ -3519,269 +4320,269 @@
       </c>
       <c r="F25" s="12">
         <f>IF(گوگل!F25=کلید!E$2,3,IF(گوگل!F25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="12">
         <f>IF(گوگل!G25=کلید!F$2,3,IF(گوگل!G25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="12">
         <f>IF(گوگل!H25=کلید!G$2,3,IF(گوگل!H25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="12">
         <f>IF(گوگل!I25=کلید!H$2,3,IF(گوگل!I25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="12">
         <f>IF(گوگل!J25=کلید!I$2,3,IF(گوگل!J25="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="12">
         <f>IF(گوگل!K25=کلید!J$2,3,IF(گوگل!K25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="12">
         <f>IF(گوگل!L25=کلید!K$2,3,IF(گوگل!L25="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="11" t="str">
         <f>گوگل!A26</f>
-        <v>0</v>
+        <v>معراج لشگری</v>
       </c>
       <c r="B26" s="11">
         <f>گوگل!B26</f>
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="C26" s="12">
         <f>IF(گوگل!C26=کلید!B$2,3,IF(گوگل!C26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="12">
         <f>IF(گوگل!D26=کلید!C$2,3,IF(گوگل!D26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="12">
         <f>IF(گوگل!E26=کلید!D$2,3,IF(گوگل!E26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="12">
         <f>IF(گوگل!F26=کلید!E$2,3,IF(گوگل!F26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="12">
         <f>IF(گوگل!G26=کلید!F$2,3,IF(گوگل!G26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" s="12">
         <f>IF(گوگل!H26=کلید!G$2,3,IF(گوگل!H26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="12">
         <f>IF(گوگل!I26=کلید!H$2,3,IF(گوگل!I26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="12">
         <f>IF(گوگل!J26=کلید!I$2,3,IF(گوگل!J26="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K26" s="12">
         <f>IF(گوگل!K26=کلید!J$2,3,IF(گوگل!K26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" s="12">
         <f>IF(گوگل!L26=کلید!K$2,3,IF(گوگل!L26="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="11" t="str">
         <f>گوگل!A27</f>
-        <v>0</v>
+        <v>علی ارفش</v>
       </c>
       <c r="B27" s="11">
         <f>گوگل!B27</f>
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C27" s="12">
         <f>IF(گوگل!C27=کلید!B$2,3,IF(گوگل!C27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="12">
         <f>IF(گوگل!D27=کلید!C$2,3,IF(گوگل!D27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="12">
         <f>IF(گوگل!E27=کلید!D$2,3,IF(گوگل!E27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="12">
         <f>IF(گوگل!F27=کلید!E$2,3,IF(گوگل!F27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="12">
         <f>IF(گوگل!G27=کلید!F$2,3,IF(گوگل!G27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="12">
         <f>IF(گوگل!H27=کلید!G$2,3,IF(گوگل!H27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="12">
         <f>IF(گوگل!I27=کلید!H$2,3,IF(گوگل!I27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="12">
         <f>IF(گوگل!J27=کلید!I$2,3,IF(گوگل!J27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="12">
         <f>IF(گوگل!K27=کلید!J$2,3,IF(گوگل!K27="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L27" s="12">
         <f>IF(گوگل!L27=کلید!K$2,3,IF(گوگل!L27="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="11" t="str">
         <f>گوگل!A28</f>
-        <v>0</v>
+        <v>محمدحسین علیجانی</v>
       </c>
       <c r="B28" s="11">
         <f>گوگل!B28</f>
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="C28" s="12">
         <f>IF(گوگل!C28=کلید!B$2,3,IF(گوگل!C28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="12">
         <f>IF(گوگل!D28=کلید!C$2,3,IF(گوگل!D28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="12">
         <f>IF(گوگل!E28=کلید!D$2,3,IF(گوگل!E28="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="12">
         <f>IF(گوگل!F28=کلید!E$2,3,IF(گوگل!F28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="12">
         <f>IF(گوگل!G28=کلید!F$2,3,IF(گوگل!G28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="12">
         <f>IF(گوگل!H28=کلید!G$2,3,IF(گوگل!H28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="12">
         <f>IF(گوگل!I28=کلید!H$2,3,IF(گوگل!I28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="12">
         <f>IF(گوگل!J28=کلید!I$2,3,IF(گوگل!J28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="12">
         <f>IF(گوگل!K28=کلید!J$2,3,IF(گوگل!K28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="12">
         <f>IF(گوگل!L28=کلید!K$2,3,IF(گوگل!L28="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="11" t="str">
         <f>گوگل!A29</f>
-        <v>0</v>
+        <v>بنیامین لطفی کاظمی</v>
       </c>
       <c r="B29" s="11">
         <f>گوگل!B29</f>
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="C29" s="12">
         <f>IF(گوگل!C29=کلید!B$2,3,IF(گوگل!C29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="12">
         <f>IF(گوگل!D29=کلید!C$2,3,IF(گوگل!D29="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E29" s="12">
         <f>IF(گوگل!E29=کلید!D$2,3,IF(گوگل!E29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="12">
         <f>IF(گوگل!F29=کلید!E$2,3,IF(گوگل!F29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="12">
         <f>IF(گوگل!G29=کلید!F$2,3,IF(گوگل!G29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="12">
         <f>IF(گوگل!H29=کلید!G$2,3,IF(گوگل!H29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="12">
         <f>IF(گوگل!I29=کلید!H$2,3,IF(گوگل!I29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="12">
         <f>IF(گوگل!J29=کلید!I$2,3,IF(گوگل!J29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="12">
         <f>IF(گوگل!K29=کلید!J$2,3,IF(گوگل!K29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="12">
         <f>IF(گوگل!L29=کلید!K$2,3,IF(گوگل!L29="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="11" t="str">
         <f>گوگل!A30</f>
-        <v>0</v>
+        <v>آرین پاشازاده</v>
       </c>
       <c r="B30" s="11">
         <f>گوگل!B30</f>
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="C30" s="12">
         <f>IF(گوگل!C30=کلید!B$2,3,IF(گوگل!C30="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D30" s="12">
         <f>IF(گوگل!D30=کلید!C$2,3,IF(گوگل!D30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="12">
         <f>IF(گوگل!E30=کلید!D$2,3,IF(گوگل!E30="",0,-1))</f>
@@ -3789,23 +4590,23 @@
       </c>
       <c r="F30" s="12">
         <f>IF(گوگل!F30=کلید!E$2,3,IF(گوگل!F30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="12">
         <f>IF(گوگل!G30=کلید!F$2,3,IF(گوگل!G30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="12">
         <f>IF(گوگل!H30=کلید!G$2,3,IF(گوگل!H30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="12">
         <f>IF(گوگل!I30=کلید!H$2,3,IF(گوگل!I30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="12">
         <f>IF(گوگل!J30=کلید!I$2,3,IF(گوگل!J30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="12">
         <f>IF(گوگل!K30=کلید!J$2,3,IF(گوگل!K30="",0,-1))</f>
@@ -3813,227 +4614,227 @@
       </c>
       <c r="L30" s="12">
         <f>IF(گوگل!L30=کلید!K$2,3,IF(گوگل!L30="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="11" t="str">
         <f>گوگل!A31</f>
-        <v>0</v>
+        <v>محمدمهدی امیدی</v>
       </c>
       <c r="B31" s="11">
         <f>گوگل!B31</f>
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="C31" s="12">
         <f>IF(گوگل!C31=کلید!B$2,3,IF(گوگل!C31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" s="12">
         <f>IF(گوگل!D31=کلید!C$2,3,IF(گوگل!D31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31" s="12">
         <f>IF(گوگل!E31=کلید!D$2,3,IF(گوگل!E31="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F31" s="12">
         <f>IF(گوگل!F31=کلید!E$2,3,IF(گوگل!F31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="12">
         <f>IF(گوگل!G31=کلید!F$2,3,IF(گوگل!G31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="12">
         <f>IF(گوگل!H31=کلید!G$2,3,IF(گوگل!H31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="12">
         <f>IF(گوگل!I31=کلید!H$2,3,IF(گوگل!I31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="12">
         <f>IF(گوگل!J31=کلید!I$2,3,IF(گوگل!J31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="12">
         <f>IF(گوگل!K31=کلید!J$2,3,IF(گوگل!K31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="12">
         <f>IF(گوگل!L31=کلید!K$2,3,IF(گوگل!L31="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="11" t="str">
         <f>گوگل!A32</f>
-        <v>0</v>
+        <v>ایلیا دوروزه</v>
       </c>
       <c r="B32" s="11">
         <f>گوگل!B32</f>
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="C32" s="12">
         <f>IF(گوگل!C32=کلید!B$2,3,IF(گوگل!C32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="12">
         <f>IF(گوگل!D32=کلید!C$2,3,IF(گوگل!D32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="12">
         <f>IF(گوگل!E32=کلید!D$2,3,IF(گوگل!E32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="12">
         <f>IF(گوگل!F32=کلید!E$2,3,IF(گوگل!F32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="12">
         <f>IF(گوگل!G32=کلید!F$2,3,IF(گوگل!G32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="12">
         <f>IF(گوگل!H32=کلید!G$2,3,IF(گوگل!H32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="12">
         <f>IF(گوگل!I32=کلید!H$2,3,IF(گوگل!I32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="12">
         <f>IF(گوگل!J32=کلید!I$2,3,IF(گوگل!J32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32" s="12">
         <f>IF(گوگل!K32=کلید!J$2,3,IF(گوگل!K32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="12">
         <f>IF(گوگل!L32=کلید!K$2,3,IF(گوگل!L32="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="11" t="str">
         <f>گوگل!A33</f>
-        <v>0</v>
+        <v>هادی آذری ایردموسی</v>
       </c>
       <c r="B33" s="11">
         <f>گوگل!B33</f>
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="C33" s="12">
         <f>IF(گوگل!C33=کلید!B$2,3,IF(گوگل!C33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="12">
         <f>IF(گوگل!D33=کلید!C$2,3,IF(گوگل!D33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="12">
         <f>IF(گوگل!E33=کلید!D$2,3,IF(گوگل!E33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="12">
         <f>IF(گوگل!F33=کلید!E$2,3,IF(گوگل!F33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="12">
         <f>IF(گوگل!G33=کلید!F$2,3,IF(گوگل!G33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="12">
         <f>IF(گوگل!H33=کلید!G$2,3,IF(گوگل!H33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" s="12">
         <f>IF(گوگل!I33=کلید!H$2,3,IF(گوگل!I33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" s="12">
         <f>IF(گوگل!J33=کلید!I$2,3,IF(گوگل!J33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="12">
         <f>IF(گوگل!K33=کلید!J$2,3,IF(گوگل!K33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="12">
         <f>IF(گوگل!L33=کلید!K$2,3,IF(گوگل!L33="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="11" t="str">
         <f>گوگل!A34</f>
-        <v>0</v>
+        <v>امیرمهدی امانی پیرگلین</v>
       </c>
       <c r="B34" s="11">
         <f>گوگل!B34</f>
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="C34" s="12">
         <f>IF(گوگل!C34=کلید!B$2,3,IF(گوگل!C34="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="12">
         <f>IF(گوگل!D34=کلید!C$2,3,IF(گوگل!D34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="12">
         <f>IF(گوگل!E34=کلید!D$2,3,IF(گوگل!E34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="12">
         <f>IF(گوگل!F34=کلید!E$2,3,IF(گوگل!F34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="12">
         <f>IF(گوگل!G34=کلید!F$2,3,IF(گوگل!G34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="12">
         <f>IF(گوگل!H34=کلید!G$2,3,IF(گوگل!H34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" s="12">
         <f>IF(گوگل!I34=کلید!H$2,3,IF(گوگل!I34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="12">
         <f>IF(گوگل!J34=کلید!I$2,3,IF(گوگل!J34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="12">
         <f>IF(گوگل!K34=کلید!J$2,3,IF(گوگل!K34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="12">
         <f>IF(گوگل!L34=کلید!K$2,3,IF(گوگل!L34="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4678,11 +5479,11 @@
       </c>
       <c r="C2" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D2" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D2" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B2)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B2,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1008</v>
       </c>
       <c r="AMI2"/>
     </row>
@@ -4695,11 +5496,11 @@
       </c>
       <c r="C3" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D3" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D3" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B3)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B3,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1011</v>
       </c>
       <c r="AMI3"/>
     </row>
@@ -4712,11 +5513,11 @@
       </c>
       <c r="C4" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D4" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D4" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B4)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B4,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1026</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -4736,11 +5537,11 @@
       </c>
       <c r="C5" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B5)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D5" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D5" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B5)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B5,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -4761,11 +5562,11 @@
       </c>
       <c r="C6" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D6" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D6" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B6)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B6,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1018</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -4809,11 +5610,11 @@
       </c>
       <c r="C8" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D8" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D8" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B8)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B8,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1009</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -4833,11 +5634,11 @@
       </c>
       <c r="C9" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D9" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D9" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B9)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B9,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1012</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4857,11 +5658,11 @@
       </c>
       <c r="C10" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D10" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D10" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B10)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B10,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1024</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4881,11 +5682,11 @@
       </c>
       <c r="C11" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B11)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D11" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D11" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B11)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B11,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1031</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -4902,11 +5703,11 @@
       </c>
       <c r="C12" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D12" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D12" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B12)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B12,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1039</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -4923,11 +5724,11 @@
       </c>
       <c r="C13" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D13" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D13" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B13)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B13,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1023</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -4944,11 +5745,11 @@
       </c>
       <c r="C14" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D14" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D14" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B14)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B14,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1028</v>
       </c>
       <c r="AMI14"/>
     </row>
@@ -4961,11 +5762,11 @@
       </c>
       <c r="C15" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D15" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D15" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B15)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B15,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1005</v>
       </c>
       <c r="AMI15"/>
     </row>
@@ -4978,11 +5779,11 @@
       </c>
       <c r="C16" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D16" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D16" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B16)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B16,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1025</v>
       </c>
       <c r="AMI16"/>
     </row>
@@ -4995,11 +5796,11 @@
       </c>
       <c r="C17" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D17" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D17" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B17)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B17,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1007</v>
       </c>
       <c r="AMI17"/>
     </row>
@@ -5012,11 +5813,11 @@
       </c>
       <c r="C18" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D18" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D18" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B18)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B18,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1020</v>
       </c>
       <c r="AMI18"/>
     </row>
@@ -5046,11 +5847,11 @@
       </c>
       <c r="C20" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D20" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D20" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B20)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B20,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1037</v>
       </c>
       <c r="AMI20"/>
     </row>
@@ -5080,11 +5881,11 @@
       </c>
       <c r="C22" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D22" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D22" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B22)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B22,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1004</v>
       </c>
       <c r="AMI22"/>
     </row>
@@ -5097,11 +5898,11 @@
       </c>
       <c r="C23" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D23" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D23" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B23)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B23,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1014</v>
       </c>
       <c r="AMI23"/>
     </row>
@@ -5131,11 +5932,11 @@
       </c>
       <c r="C25" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D25" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D25" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B25)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B25,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1017</v>
       </c>
       <c r="AMI25"/>
     </row>
@@ -5165,11 +5966,11 @@
       </c>
       <c r="C27" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D27" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D27" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B27)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B27,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1033</v>
       </c>
       <c r="AMI27"/>
     </row>
@@ -5182,11 +5983,11 @@
       </c>
       <c r="C28" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D28" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D28" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B28)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B28,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1036</v>
       </c>
       <c r="AMI28"/>
     </row>
@@ -5199,11 +6000,11 @@
       </c>
       <c r="C29" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D29" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D29" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B29)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B29,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1003</v>
       </c>
       <c r="AMI29"/>
     </row>
@@ -5216,11 +6017,11 @@
       </c>
       <c r="C30" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D30" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D30" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B30)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B30,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1001</v>
       </c>
       <c r="AMI30"/>
     </row>
@@ -5233,11 +6034,11 @@
       </c>
       <c r="C31" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D31" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D31" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B31)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B31,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1016</v>
       </c>
       <c r="AMI31"/>
     </row>
@@ -5267,11 +6068,11 @@
       </c>
       <c r="C33" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D33" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D33" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B33)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B33,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1029</v>
       </c>
       <c r="AMI33"/>
     </row>
@@ -5284,11 +6085,11 @@
       </c>
       <c r="C34" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D34" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D34" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B34)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B34,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1038</v>
       </c>
       <c r="AMI34"/>
     </row>
@@ -5301,11 +6102,11 @@
       </c>
       <c r="C35" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B35)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D35" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D35" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B35)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B35,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1021</v>
       </c>
       <c r="AMI35"/>
     </row>
@@ -5318,11 +6119,11 @@
       </c>
       <c r="C36" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B36)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D36" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D36" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B36)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B36,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1015</v>
       </c>
       <c r="AMI36"/>
     </row>
@@ -5352,11 +6153,11 @@
       </c>
       <c r="C38" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B38)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D38" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D38" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B38)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B38,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1032</v>
       </c>
       <c r="AMI38"/>
     </row>
@@ -5386,11 +6187,11 @@
       </c>
       <c r="C40" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D40" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D40" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B40)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B40,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1010</v>
       </c>
       <c r="AMI40"/>
     </row>
@@ -5403,11 +6204,11 @@
       </c>
       <c r="C41" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D41" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D41" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B41)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B41,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1035</v>
       </c>
       <c r="AMI41"/>
     </row>
@@ -5420,11 +6221,11 @@
       </c>
       <c r="C42" s="34" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D42" s="40" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D42" s="40">
         <f>IF(COUNTIF(درصد!B$2:B$44,B42)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B42,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1006</v>
       </c>
       <c r="AMI42"/>
     </row>
@@ -5439,7 +6240,7 @@
       </c>
       <c r="C44" s="24">
         <f>COUNTIF('نتایج روزانه'!D2:D42,"غایب")</f>
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:1023" x14ac:dyDescent="0.25">
@@ -5543,57 +6344,57 @@
       </c>
       <c r="D2" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O2" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A3" s="26">
         <f t="shared" ref="A3:A42" si="0">RANK(O3, O$2:O$42)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>19</v>
@@ -5603,51 +6404,51 @@
       </c>
       <c r="D3" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -5663,57 +6464,57 @@
       </c>
       <c r="D4" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>22</v>
@@ -5723,51 +6524,51 @@
       </c>
       <c r="D5" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C5)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -5783,57 +6584,57 @@
       </c>
       <c r="D6" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>37</v>
@@ -5903,51 +6704,51 @@
       </c>
       <c r="D8" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -5963,57 +6764,57 @@
       </c>
       <c r="D9" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>15</v>
@@ -6023,57 +6824,57 @@
       </c>
       <c r="D10" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O10" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>45</v>
@@ -6083,51 +6884,51 @@
       </c>
       <c r="D11" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C11)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -6143,57 +6944,57 @@
       </c>
       <c r="D12" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>30</v>
@@ -6203,15 +7004,15 @@
       </c>
       <c r="D13" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
@@ -6219,35 +7020,35 @@
       </c>
       <c r="H13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -6263,57 +7064,57 @@
       </c>
       <c r="D14" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>34</v>
@@ -6323,57 +7124,57 @@
       </c>
       <c r="D15" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>31</v>
@@ -6383,57 +7184,57 @@
       </c>
       <c r="D16" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>13</v>
@@ -6443,51 +7244,51 @@
       </c>
       <c r="D17" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -6503,57 +7304,57 @@
       </c>
       <c r="D18" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>44</v>
@@ -6613,7 +7414,7 @@
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>29</v>
@@ -6623,31 +7424,31 @@
       </c>
       <c r="D20" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
@@ -6655,25 +7456,25 @@
       </c>
       <c r="L20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>42</v>
@@ -6733,7 +7534,7 @@
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>38</v>
@@ -6743,57 +7544,57 @@
       </c>
       <c r="D22" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>33</v>
@@ -6803,57 +7604,57 @@
       </c>
       <c r="D23" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N23" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>35</v>
@@ -6913,7 +7714,7 @@
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>23</v>
@@ -6923,57 +7724,57 @@
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N25" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O25" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>40</v>
@@ -7033,7 +7834,7 @@
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>49</v>
@@ -7043,57 +7844,57 @@
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N27" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>41</v>
@@ -7103,57 +7904,57 @@
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>26</v>
@@ -7163,57 +7964,57 @@
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>36</v>
@@ -7223,39 +8024,39 @@
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -7263,11 +8064,11 @@
       </c>
       <c r="N30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O30" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -7283,57 +8084,57 @@
       </c>
       <c r="D31" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>20</v>
@@ -7393,7 +8194,7 @@
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>47</v>
@@ -7403,15 +8204,15 @@
       </c>
       <c r="D33" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
@@ -7419,41 +8220,41 @@
       </c>
       <c r="H33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N33" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O33" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>21</v>
@@ -7463,57 +8264,57 @@
       </c>
       <c r="D34" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N34" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O34" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>24</v>
@@ -7523,11 +8324,11 @@
       </c>
       <c r="D35" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C35)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
@@ -7535,27 +8336,27 @@
       </c>
       <c r="G35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
@@ -7563,11 +8364,11 @@
       </c>
       <c r="N35" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O35" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C35)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C35,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -7583,57 +8384,57 @@
       </c>
       <c r="D36" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C36)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C36)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>12</v>
@@ -7703,57 +8504,57 @@
       </c>
       <c r="D38" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C38)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O38" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C38)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>59</v>
@@ -7813,7 +8614,7 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>39</v>
@@ -7823,15 +8624,15 @@
       </c>
       <c r="D40" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C40)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -7839,23 +8640,23 @@
       </c>
       <c r="H40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -7863,17 +8664,17 @@
       </c>
       <c r="N40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O40" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>32</v>
@@ -7883,15 +8684,15 @@
       </c>
       <c r="D41" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
@@ -7899,35 +8700,35 @@
       </c>
       <c r="H41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N41" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O41" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -7943,51 +8744,51 @@
       </c>
       <c r="D42" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C42)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N42" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O42" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C42)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C42,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
@@ -8144,7 +8945,7 @@
       </c>
       <c r="C2" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8156,7 +8957,7 @@
       </c>
       <c r="C3" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -8168,7 +8969,7 @@
       </c>
       <c r="C4" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8180,7 +8981,7 @@
       </c>
       <c r="C5" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8192,7 +8993,7 @@
       </c>
       <c r="C6" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8204,7 +9005,7 @@
       </c>
       <c r="C7" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8216,7 +9017,7 @@
       </c>
       <c r="C8" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -8228,7 +9029,7 @@
       </c>
       <c r="C9" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8240,7 +9041,7 @@
       </c>
       <c r="C10" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8252,7 +9053,7 @@
       </c>
       <c r="C11" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8264,7 +9065,7 @@
       </c>
       <c r="C12" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8276,7 +9077,7 @@
       </c>
       <c r="C13" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8300,7 +9101,7 @@
       </c>
       <c r="C15" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -8312,7 +9113,7 @@
       </c>
       <c r="C16" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -8324,7 +9125,7 @@
       </c>
       <c r="C17" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -8336,7 +9137,7 @@
       </c>
       <c r="C18" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -8348,7 +9149,7 @@
       </c>
       <c r="C19" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8372,7 +9173,7 @@
       </c>
       <c r="C21" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8384,7 +9185,7 @@
       </c>
       <c r="C22" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8408,7 +9209,7 @@
       </c>
       <c r="C24" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -8420,7 +9221,7 @@
       </c>
       <c r="C25" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8432,7 +9233,7 @@
       </c>
       <c r="C26" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -8444,7 +9245,7 @@
       </c>
       <c r="C27" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -8468,7 +9269,7 @@
       </c>
       <c r="C29" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -8480,7 +9281,7 @@
       </c>
       <c r="C30" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -8504,7 +9305,7 @@
       </c>
       <c r="C32" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -8516,7 +9317,7 @@
       </c>
       <c r="C33" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B33)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -8528,7 +9329,7 @@
       </c>
       <c r="C34" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -8552,7 +9353,7 @@
       </c>
       <c r="C36" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B36)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B36,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -8564,7 +9365,7 @@
       </c>
       <c r="C37" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B37)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B37,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -8576,7 +9377,7 @@
       </c>
       <c r="C38" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B38)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B38,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -8588,7 +9389,7 @@
       </c>
       <c r="C39" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B39)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B39,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -8600,7 +9401,7 @@
       </c>
       <c r="C40" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B40,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -8637,8 +9438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O45" sqref="A1:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8699,58 +9500,58 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C2" s="23">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="D2" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C2)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C2)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C2,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C2,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8759,58 +9560,58 @@
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" s="23">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D3" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C3)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C3)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C3,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C3)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C3,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8826,51 +9627,51 @@
       </c>
       <c r="D4" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C4)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C4)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C4,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C4)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C4,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8879,58 +9680,58 @@
         <v>1</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" s="23">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="D5" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C5)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C5)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C5,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C5)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C5,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8939,58 +9740,58 @@
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C6" s="23">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="D6" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C6)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C6)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C6,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C6)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C6,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8999,58 +9800,58 @@
         <v>1</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C7" s="23">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="D7" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9059,58 +9860,58 @@
         <v>1</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C8" s="23">
-        <v>1009</v>
+        <v>1039</v>
       </c>
       <c r="D8" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C8)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C8,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9119,58 +9920,58 @@
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C9" s="23">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="D9" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C9)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9179,58 +9980,58 @@
         <v>1</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="23">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D10" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C10)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C10)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C10,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9239,58 +10040,58 @@
         <v>1</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="23">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="D11" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C11)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9299,58 +10100,58 @@
         <v>1</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C12" s="23">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="D12" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -9359,98 +10160,98 @@
         <v>1</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="23">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="D13" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C14" s="23">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="D14" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9458,579 +10259,579 @@
       </c>
       <c r="L14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C15" s="23">
-        <v>1005</v>
+        <v>1031</v>
       </c>
       <c r="D15" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C15)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C15,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="23">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="D16" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C16)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C16,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C17" s="23">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="D17" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="23">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="D18" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C19" s="23">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="D19" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C19)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C19)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C19,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C20" s="23">
-        <v>1037</v>
+        <v>1011</v>
       </c>
       <c r="D20" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C21" s="23">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="D21" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C21)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C22" s="23">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D22" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C23" s="23">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="D23" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C24" s="23">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="D24" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C24)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10038,27 +10839,27 @@
       </c>
       <c r="G24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10066,35 +10867,35 @@
       </c>
       <c r="N24" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C25" s="23">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10102,59 +10903,59 @@
       </c>
       <c r="H25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" s="23">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D26" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C26)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10162,299 +10963,299 @@
       </c>
       <c r="H26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C26)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C26,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C27" s="23">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C28" s="23">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C29" s="23">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C30" s="23">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C31" s="23">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D31" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10462,23 +11263,23 @@
       </c>
       <c r="H31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10486,59 +11287,59 @@
       </c>
       <c r="N31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C32" s="23">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="D32" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C32)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10546,35 +11347,35 @@
       </c>
       <c r="N32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C33" s="23">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D33" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C33)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10582,107 +11383,107 @@
       </c>
       <c r="H33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C33)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C33,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C33)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C33,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C34" s="23">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="D34" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C34)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C34)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C34,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C34)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C34,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C35" s="23">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="D35" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C35)=1,"حاضر","غایب")</f>
@@ -10736,13 +11537,13 @@
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C36" s="23">
-        <v>1015</v>
+        <v>1034</v>
       </c>
       <c r="D36" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C36)=1,"حاضر","غایب")</f>
@@ -10796,13 +11597,13 @@
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C37" s="23">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="D37" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C37)=1,"حاضر","غایب")</f>
@@ -10856,13 +11657,13 @@
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C38" s="23">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="D38" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C38)=1,"حاضر","غایب")</f>
@@ -10916,13 +11717,13 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C39" s="23">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="D39" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C39)=1,"حاضر","غایب")</f>
@@ -10976,13 +11777,13 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C40" s="23">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="D40" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C40)=1,"حاضر","غایب")</f>
@@ -11036,13 +11837,13 @@
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C41" s="23">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="D41" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C41)=1,"حاضر","غایب")</f>
@@ -11096,13 +11897,13 @@
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C42" s="23">
-        <v>1006</v>
+        <v>1041</v>
       </c>
       <c r="D42" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C42)=1,"حاضر","غایب")</f>
@@ -11244,6 +12045,9 @@
       <c r="N45" s="52"/>
     </row>
   </sheetData>
+  <sortState ref="B2:O42">
+    <sortCondition descending="1" ref="O2:O42"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="E45:I45"/>
     <mergeCell ref="J45:N45"/>

--- a/week 6/مطالعات/Skale(V3.6).xlsx
+++ b/week 6/مطالعات/Skale(V3.6).xlsx
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2242,9 @@
       <c r="J21" s="44">
         <v>4</v>
       </c>
-      <c r="K21" s="45"/>
+      <c r="K21" s="45">
+        <v>2</v>
+      </c>
       <c r="L21" s="44">
         <v>1</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>1010</v>
       </c>
       <c r="C30" s="44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" s="44">
         <v>1</v>
@@ -4124,7 +4126,7 @@
       </c>
       <c r="K21" s="12">
         <f>IF(گوگل!K21=کلید!J$2,3,IF(گوگل!K21="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="12">
         <f>IF(گوگل!L21=کلید!K$2,3,IF(گوگل!L21="",0,-1))</f>
@@ -4132,7 +4134,7 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" si="0"/>
-        <v>63.333333333333329</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4578,7 +4580,7 @@
       </c>
       <c r="C30" s="12">
         <f>IF(گوگل!C30=کلید!B$2,3,IF(گوگل!C30="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="12">
         <f>IF(گوگل!D30=کلید!C$2,3,IF(گوگل!D30="",0,-1))</f>
@@ -4618,7 +4620,7 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -6814,7 +6816,7 @@
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>15</v>
@@ -6994,7 +6996,7 @@
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>30</v>
@@ -7534,7 +7536,7 @@
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>38</v>
@@ -7594,7 +7596,7 @@
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>33</v>
@@ -7894,7 +7896,7 @@
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>41</v>
@@ -8014,7 +8016,7 @@
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>36</v>
@@ -8060,7 +8062,7 @@
       </c>
       <c r="M30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
@@ -8068,7 +8070,7 @@
       </c>
       <c r="O30" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C30)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C30,درصد!B$2:B$44,0)),0)</f>
-        <v>63.333333333333329</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8194,7 +8196,7 @@
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>47</v>
@@ -8614,7 +8616,7 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>39</v>
@@ -8628,7 +8630,7 @@
       </c>
       <c r="E40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F40" s="25">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -8668,13 +8670,13 @@
       </c>
       <c r="O40" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>66.666666666666657</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="26">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>32</v>
@@ -8945,7 +8947,7 @@
       </c>
       <c r="C2" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B2)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B2,درصد!B$2:B$44,0)),0)</f>
-        <v>63.333333333333329</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9053,7 +9055,7 @@
       </c>
       <c r="C11" s="43">
         <f>IF(COUNTIF(درصد!B$2:B$44,B11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B11,درصد!B$2:B$44,0)),0)</f>
-        <v>66.666666666666657</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9438,8 +9440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O45" sqref="A1:O45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10877,13 +10879,13 @@
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25" s="23">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="D25" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C25)=1,"حاضر","غایب")</f>
@@ -10919,11 +10921,11 @@
       </c>
       <c r="L25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C25)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C25,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10931,19 +10933,19 @@
       </c>
       <c r="O25" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C25)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C25,درصد!B$2:B$44,0)),0)</f>
-        <v>76.666666666666671</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C26" s="23">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="D26" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C26)=1,"حاضر","غایب")</f>
@@ -10951,7 +10953,7 @@
       </c>
       <c r="E26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10979,7 +10981,7 @@
       </c>
       <c r="L26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C26)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C26,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10997,13 +10999,13 @@
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C27" s="23">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="D27" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C27)=1,"حاضر","غایب")</f>
@@ -11011,15 +11013,15 @@
       </c>
       <c r="E27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C27)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C27,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11051,19 +11053,19 @@
       </c>
       <c r="O27" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C27)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C27,درصد!B$2:B$44,0)),0)</f>
-        <v>73.333333333333329</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C28" s="23">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="D28" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C28)=1,"حاضر","غایب")</f>
@@ -11075,15 +11077,15 @@
       </c>
       <c r="F28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11107,7 +11109,7 @@
       </c>
       <c r="N28" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C28)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C28,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O28" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C28)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C28,درصد!B$2:B$44,0)),0)</f>
@@ -11117,13 +11119,13 @@
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C29" s="23">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="D29" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C29)=1,"حاضر","غایب")</f>
@@ -11135,7 +11137,7 @@
       </c>
       <c r="F29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11143,7 +11145,7 @@
       </c>
       <c r="H29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11163,11 +11165,11 @@
       </c>
       <c r="M29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C29)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C29,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O29" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C29)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C29,درصد!B$2:B$44,0)),0)</f>
@@ -11177,13 +11179,13 @@
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="26">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C30" s="23">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="D30" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C30)=1,"حاضر","غایب")</f>
@@ -11195,11 +11197,11 @@
       </c>
       <c r="F30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11211,7 +11213,7 @@
       </c>
       <c r="J30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11223,7 +11225,7 @@
       </c>
       <c r="M30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C30)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C30,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11237,13 +11239,13 @@
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="23">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="D31" s="25" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
@@ -11251,7 +11253,7 @@
       </c>
       <c r="E31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11259,7 +11261,7 @@
       </c>
       <c r="G31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11271,7 +11273,7 @@
       </c>
       <c r="J31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11283,7 +11285,7 @@
       </c>
       <c r="M31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C31)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C31,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11291,13 +11293,13 @@
       </c>
       <c r="O31" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>66.666666666666657</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="26">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>36</v>
@@ -11343,7 +11345,7 @@
       </c>
       <c r="M32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" s="25">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C32)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C32,گوگل!$B$2:$B$44,0)),0)</f>
@@ -11351,13 +11353,13 @@
       </c>
       <c r="O32" s="28">
         <f>IF(COUNTIF(درصد!B$2:B$44,C32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C32,درصد!B$2:B$44,0)),0)</f>
-        <v>63.333333333333329</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="26">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>32</v>
